--- a/Zzs/Assets/Excel/Item.xlsx
+++ b/Zzs/Assets/Excel/Item.xlsx
@@ -26,6 +26,32 @@
     <author>admin</author>
   </authors>
   <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+这个名称要和工程内的资源文件夹名字一样，否则图集找不到</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
@@ -682,7 +708,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="303">
   <si>
     <t>id</t>
   </si>
@@ -693,9 +719,6 @@
     <t>健美佳</t>
   </si>
   <si>
-    <t>爆单</t>
-  </si>
-  <si>
     <t>as半分离乳清5磅</t>
   </si>
   <si>
@@ -729,18 +752,12 @@
     <t>埃姆特</t>
   </si>
   <si>
-    <t>300g（100次）</t>
-  </si>
-  <si>
     <t>经典进口肌酸，瑞典进口，助你力量提升一个档次</t>
   </si>
   <si>
     <t>300g</t>
   </si>
   <si>
-    <t>五磅</t>
-  </si>
-  <si>
     <t>质量</t>
   </si>
   <si>
@@ -762,24 +779,15 @@
     <t>肌肉梦想</t>
   </si>
   <si>
-    <t>老董</t>
-  </si>
-  <si>
     <t>5磅</t>
   </si>
   <si>
-    <t>草莓果粒|巧克力</t>
-  </si>
-  <si>
     <t>性价比比较高的乳清，蛋白质72%，口感好，带草莓果粒</t>
   </si>
   <si>
     <t>肌肉梦想增肌粉</t>
   </si>
   <si>
-    <t>草莓</t>
-  </si>
-  <si>
     <t>性价比最高且效果好的增肌粉（没有之一）</t>
   </si>
   <si>
@@ -837,9 +845,6 @@
     <t>市面上稍有的纯度100%肌酸 贵一点 好很多，比300g性价比高，一次一年量</t>
   </si>
   <si>
-    <t>60粒</t>
-  </si>
-  <si>
     <t>康比特益生菌乳清</t>
   </si>
   <si>
@@ -852,60 +857,18 @@
     <t>奶茶|酸奶|香草</t>
   </si>
   <si>
-    <t>乳清的基础上添加了益生菌，吸收效果更好</t>
-  </si>
-  <si>
     <t>康比特炽金乳清</t>
   </si>
   <si>
-    <t>胖虎</t>
-  </si>
-  <si>
-    <t>巧克力|香蕉|芒果|百香果等具体看淘宝</t>
-  </si>
-  <si>
-    <t>经典五磅乳清</t>
-  </si>
-  <si>
     <t>康比特分离乳清</t>
   </si>
   <si>
-    <t>待定</t>
-  </si>
-  <si>
-    <t>四磅</t>
-  </si>
-  <si>
-    <t>柠檬|酸奶|抹茶|咖啡</t>
-  </si>
-  <si>
-    <t>康比特旗下，品质最高的粉</t>
-  </si>
-  <si>
     <t>康比特锌镁肌酸</t>
   </si>
   <si>
-    <t>菠萝|混合莓|石榴</t>
-  </si>
-  <si>
-    <t>额外添加锌镁元素，促睾增肌</t>
-  </si>
-  <si>
-    <t>康比特支链</t>
-  </si>
-  <si>
-    <t>西柚</t>
-  </si>
-  <si>
-    <t>促进肌肉合成，防止有氧肌肉分解</t>
-  </si>
-  <si>
     <t>康比特锌镁支链</t>
   </si>
   <si>
-    <t>IFBB詹</t>
-  </si>
-  <si>
     <t>120g</t>
   </si>
   <si>
@@ -921,30 +884,18 @@
     <t>7磅</t>
   </si>
   <si>
-    <t>奶茶|巧克力</t>
-  </si>
-  <si>
-    <t>增肌粉中最牛逼的，没有之一</t>
-  </si>
-  <si>
     <t>sst怪兽氮泵</t>
   </si>
   <si>
     <t>sst怪兽</t>
   </si>
   <si>
-    <t>苹果|橙子|葡萄|冰红茶|可乐</t>
-  </si>
-  <si>
     <t>百元内氮泵天花板，无对手，成分优于病原体，凯文</t>
   </si>
   <si>
     <t>sst维生素</t>
   </si>
   <si>
-    <t>一个月量</t>
-  </si>
-  <si>
     <t>维生素天花板</t>
   </si>
   <si>
@@ -963,33 +914,21 @@
     <t>轮子哥赛季护腕，为你的训练保驾护航，远离伤病</t>
   </si>
   <si>
-    <t>轮子哥护肘（绑）</t>
-  </si>
-  <si>
     <t>轮子哥赛季护肘，为你的训练保驾护航，远离伤病</t>
   </si>
   <si>
-    <t>轮子哥护肘（套）</t>
-  </si>
-  <si>
     <t>蓝|灰|黑</t>
   </si>
   <si>
     <t>轮子哥赛季护肘，为你的训练保驾护航，远离伤病，价格高于绑肘</t>
   </si>
   <si>
-    <t>轮子哥护膝（绑）</t>
-  </si>
-  <si>
     <t>华嘉</t>
   </si>
   <si>
     <t>轮子哥赛季护膝，为你的训练保驾护航，远离伤病</t>
   </si>
   <si>
-    <t>轮子哥护膝（套）</t>
-  </si>
-  <si>
     <t>轮子哥赛季护膝，为你的训练保驾护航，远离伤病，价格高于绑膝</t>
   </si>
   <si>
@@ -1002,9 +941,6 @@
     <t>太原</t>
   </si>
   <si>
-    <t>健身行业敲门砖，含金量偏高，保有量最大，需要考试</t>
-  </si>
-  <si>
     <t>cbba中级</t>
   </si>
   <si>
@@ -1026,12 +962,6 @@
     <t>b格很高，含金量也不错，无需考试</t>
   </si>
   <si>
-    <t>奥赛</t>
-  </si>
-  <si>
-    <t>b格最高，职业同款，含金量高，无需考试</t>
-  </si>
-  <si>
     <t>ifba</t>
   </si>
   <si>
@@ -1044,9 +974,6 @@
     <t>未来之星</t>
   </si>
   <si>
-    <t>享享</t>
-  </si>
-  <si>
     <t>800g</t>
   </si>
   <si>
@@ -1056,21 +983,12 @@
     <t>蛋白质85%，质量过硬，超过肌肉科技白金，口感也无敌</t>
   </si>
   <si>
-    <t>蓝魔</t>
-  </si>
-  <si>
-    <t>不做有氧也有效果，增加全身代谢，抑制食欲</t>
-  </si>
-  <si>
     <t>印度</t>
   </si>
   <si>
     <t>严格按照说明服用，半个起步</t>
   </si>
   <si>
-    <t>希爱力一板（10粒）</t>
-  </si>
-  <si>
     <t>10粒</t>
   </si>
   <si>
@@ -1093,16 +1011,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>肌械时代</t>
-  </si>
-  <si>
     <t>MTS</t>
-  </si>
-  <si>
-    <t>巅峰</t>
-  </si>
-  <si>
-    <t>氧气能量</t>
   </si>
   <si>
     <t>诺特兰德</t>
@@ -1148,10 +1057,6 @@
   </si>
   <si>
     <t>鱼油</t>
-  </si>
-  <si>
-    <t>补剂功能介绍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1219,10 +1124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>keep谷氨酰胺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吴凡/简单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1236,10 +1137,6 @@
   </si>
   <si>
     <t>纯谷氨酰胺，品质好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性价比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1295,6 +1192,1059 @@
       <t>ort</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮子哥绑肘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮子哥绑膝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮子哥套肘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮子哥套膝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希爱力10粒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>草莓果粒|巧克力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|酸奶</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草莓|椰奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奔腾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>巧克力|香蕉|芒果|百香果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|香草|抹茶|酸奶|椰子</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿茶|酸奶|抹茶|咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菠萝|混合莓|可乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肌肉引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>奶茶|巧克力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|椰奶</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>增肌粉中最牛逼的，没有之一，碳水7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5%，蛋白质25%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>康比特旗下，品质最高的粉，蛋白质8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8% 纯分离</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经典五磅乳清，蛋白质75%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳清的基础上添加了益生菌，吸收效果更好，蛋白质75%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙子|葡萄|冰红茶|可乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太原/姜太医</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健身爱好者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健身行业敲门砖，含金量偏高，保有量最大，需要线上考试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健身行业敲门砖，含金量偏高，保有量最大，需要线上考试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smart乳清</t>
+  </si>
+  <si>
+    <t>海德力乳清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肌肉博士乳清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马泰二磅乳清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顽皮男孩乳清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mts分离乳清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海德力分离乳清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑天鹅分离乳清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mts碳水能量粉</t>
+  </si>
+  <si>
+    <t>袋装米糊4磅</t>
+  </si>
+  <si>
+    <t>诺特100g肌酸</t>
+  </si>
+  <si>
+    <t>特拉维尔肌酸</t>
+  </si>
+  <si>
+    <t>勇士涂抹氮泵</t>
+  </si>
+  <si>
+    <t>Keep支链300g</t>
+  </si>
+  <si>
+    <t>Keep支链500g</t>
+  </si>
+  <si>
+    <t>诺特锌镁片</t>
+  </si>
+  <si>
+    <t>特拉维尔精氨酸</t>
+  </si>
+  <si>
+    <t>土克甾酮</t>
+  </si>
+  <si>
+    <t>公爵牛皮助力带</t>
+  </si>
+  <si>
+    <t>gat左旋</t>
+  </si>
+  <si>
+    <t>炽天使燃脂</t>
+  </si>
+  <si>
+    <t>特拉维尔鱼油</t>
+  </si>
+  <si>
+    <t>诺特电解质</t>
+  </si>
+  <si>
+    <t>电动摇摇杯</t>
+  </si>
+  <si>
+    <t>魔兽健身包</t>
+  </si>
+  <si>
+    <t>运动恢复相关</t>
+  </si>
+  <si>
+    <t>海德力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肌肉博士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马泰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肌肉博士分离乳清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顽皮男孩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孤品无视品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00g</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5磅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老何</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴凡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂抹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00g</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲨鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿昌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴凡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猿人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲨鱼/猿人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲨鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿荣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健美佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊亮/胖虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴凡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猿人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健美佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公爵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5磅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4磅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2磅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.4磅</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4磅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4磅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.4磅</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00g</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00g</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0粒</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0粒</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00ml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0粒</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00粒</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>均码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20ml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>棕|黑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|紫</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草莓|柠檬|橙子|西游|可乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨后浪漫|夏日激情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原味</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原味</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抹茶|草莓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国产老品牌，品质还算ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性价比高，抖音比较火，小白喜欢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>为数不多的小重量乳清，口味多，蛋白质7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进口三重乳清，品质不错，焦糖饼干很nice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>口感偏甜，唯一缺点，原味蛋白质8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0%，其余蛋白质75%，不介意甜的很合适</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>首位分离乳清，成分对标on金标乳清，蛋白质</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>75%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国产分离，性价比高点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>混合分离，蛋白质9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2%，性价比可以的，小白喜欢</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高端分离系列，价格略贵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是简单的增肌粉，具体看后边图里的成分表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘦子必备迷糊，嘎嘎补充碳水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一水肌酸的基础上额外添加锌镁元素，促睾增肌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性价比高，成交价低的一水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00g肌酸，性价比高，但是网上没有控价</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效退款，非常牛逼，可修复关节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口感好，训练过程中当饮料喝很不错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口感好，训练过程中当饮料喝很不错，500g大包装，性价比高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最便宜的促睾，可以顺便补充维生素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5天量，精氨酸+维生素二合一</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然选手外挂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性价比最高的左旋，没有之一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果对标蓝魔，利润高，早上空腹有氧前吃一个或者两个，嘎嘎猛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性价比比较高的鱼油，线上没有控价，灵活定价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每单2块钱邮费，一盒6块钱，十盒打包50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>练背辅助握力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装电池，解放双手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以放两桶五磅的粉，日常够用，干湿分离，性价比高，防水耐磨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实惠</t>
+  </si>
+  <si>
+    <t>实惠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>橙子|西瓜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|柠檬</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>百香果|橙子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|苹果|绿茶|柠檬</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草莓|香草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>玫瑰|牛奶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|香草|香蕉|巧克力|薄荷|蓝莓|教父|比基尼</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抹茶|草莓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存更新太快，私聊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>茉莉奶绿|巧克力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|拿铁|荔枝|白桃酸奶|杨枝甘露</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>焦糖饼干|草莓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|香草</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原味|香草|巧克力|草莓|椰子|菠萝|抹茶|香蕉酸奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货少，具体私聊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草莓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60粒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待填充</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>keep谷氨酰胺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00g</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原味</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯谷氨酰胺，品质好,性价比拉满的产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep谷氨酰胺200g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥赛注册级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥赛高级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b格最高，陈康同款，含金量高，无需考试。分为注册级和高级，高级含金量更高也更贵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b格最高，陈康同款，含金量高，无需考试。分为注册级和高级，高级含金量更高也更贵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肌霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>薄荷|玫瑰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|原味薰衣草</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一口提神醒脑，开车，训练，上课都能用来提神，保存好可以用好几个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗅盐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1700,13 +2650,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1734,45 +2684,45 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>2011</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
         <v>100</v>
@@ -1781,274 +2731,274 @@
         <v>201</v>
       </c>
       <c r="E2" s="1">
+        <v>220</v>
+      </c>
+      <c r="F2" s="1">
+        <v>225</v>
+      </c>
+      <c r="G2" s="1">
         <v>240</v>
       </c>
-      <c r="F2" s="1">
-        <v>260</v>
-      </c>
-      <c r="G2" s="1">
-        <v>320</v>
-      </c>
       <c r="H2" s="1">
-        <v>299</v>
+        <v>240</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2" s="1">
         <v>5</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>3</v>
+      <c r="M2" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>2012</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D3" s="1">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E3" s="1">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="F3" s="1">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G3" s="1">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H3" s="1">
-        <v>299</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>2</v>
+        <v>468</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>101</v>
+        <v>2013</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D4" s="1">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E4" s="1">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="F4" s="1">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="G4" s="1">
-        <v>88</v>
+        <v>199</v>
       </c>
       <c r="H4" s="1">
-        <v>95</v>
+        <v>400</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>203</v>
+        <v>2014</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" s="1">
         <v>201</v>
       </c>
       <c r="E5" s="1">
-        <v>150</v>
+        <v>265</v>
       </c>
       <c r="F5" s="1">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="G5" s="1">
-        <v>220</v>
+        <v>319</v>
       </c>
       <c r="H5" s="1">
-        <v>400</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>20</v>
+        <v>399</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>12</v>
+        <v>48</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>301</v>
+        <v>2015</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D6" s="1">
         <v>201</v>
       </c>
       <c r="E6" s="1">
-        <v>185</v>
+        <v>295</v>
       </c>
       <c r="F6" s="1">
-        <v>210</v>
+        <v>315</v>
       </c>
       <c r="G6" s="1">
-        <v>288</v>
+        <v>360</v>
       </c>
       <c r="H6" s="1">
-        <v>468</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>26</v>
+        <v>388</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>302</v>
+        <v>2016</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="C7" s="1">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D7" s="1">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E7" s="1">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="F7" s="1">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="G7" s="1">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="H7" s="1">
-        <v>288</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>5</v>
+        <v>158</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>303</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>2017</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="C8" s="1">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D8" s="1">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E8" s="1">
-        <v>40</v>
+        <v>279</v>
       </c>
       <c r="F8" s="1">
-        <v>60</v>
+        <v>285</v>
       </c>
       <c r="G8" s="1">
-        <v>88</v>
+        <v>299</v>
       </c>
       <c r="H8" s="1">
-        <v>300</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>37</v>
+        <v>299</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>245</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2056,163 +3006,163 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>504</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>2018</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="C9" s="1">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D9" s="1">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E9" s="1">
-        <v>49</v>
+        <v>205</v>
       </c>
       <c r="F9" s="1">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c r="G9" s="1">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="H9" s="1">
+        <v>255</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="1">
+        <v>119</v>
+      </c>
+      <c r="D10" s="1">
+        <v>201</v>
+      </c>
+      <c r="E10" s="1">
+        <v>75</v>
+      </c>
+      <c r="F10" s="1">
         <v>80</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>602</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="1">
-        <v>103</v>
-      </c>
-      <c r="D10" s="1">
-        <v>203</v>
-      </c>
-      <c r="E10" s="1">
-        <v>108</v>
-      </c>
-      <c r="F10" s="1">
-        <v>120</v>
-      </c>
       <c r="G10" s="1">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="H10" s="1">
-        <v>138</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0</v>
+        <v>95</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>603</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>2020</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="C11" s="1">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D11" s="1">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E11" s="1">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="F11" s="1">
-        <v>265</v>
+        <v>330</v>
       </c>
       <c r="G11" s="1">
-        <v>310</v>
+        <v>365</v>
       </c>
       <c r="H11" s="1">
-        <v>350</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
+        <v>375</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>701</v>
+        <v>2021</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>162</v>
       </c>
       <c r="C12" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D12" s="1">
         <v>201</v>
       </c>
       <c r="E12" s="1">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F12" s="1">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G12" s="1">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="H12" s="1">
-        <v>299</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>56</v>
+        <v>265</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>249</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2220,122 +3170,122 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>702</v>
+        <v>2191</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1">
         <v>101</v>
       </c>
       <c r="D13" s="1">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="E13" s="1">
-        <v>285</v>
+        <v>365</v>
       </c>
       <c r="F13" s="1">
-        <v>290</v>
+        <v>385</v>
       </c>
       <c r="G13" s="1">
-        <v>320</v>
+        <v>430</v>
       </c>
       <c r="H13" s="1">
-        <v>360</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0</v>
+        <v>488</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>703</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>61</v>
+        <v>2192</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="C14" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D14" s="1">
         <v>219</v>
       </c>
       <c r="E14" s="1">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="F14" s="1">
-        <v>340</v>
+        <v>410</v>
       </c>
       <c r="G14" s="1">
-        <v>370</v>
+        <v>440</v>
       </c>
       <c r="H14" s="1">
-        <v>380</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
+        <v>448</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>704</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>66</v>
+        <v>2193</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="C15" s="1">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D15" s="1">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="E15" s="1">
-        <v>85</v>
+        <v>355</v>
       </c>
       <c r="F15" s="1">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="G15" s="1">
-        <v>120</v>
+        <v>380</v>
       </c>
       <c r="H15" s="1">
-        <v>140</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>68</v>
+        <v>380</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -2343,40 +3293,40 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>705</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>69</v>
+        <v>2194</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="C16" s="1">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D16" s="1">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E16" s="1">
-        <v>-1</v>
+        <v>323</v>
       </c>
       <c r="F16" s="1">
-        <v>-1</v>
+        <v>335</v>
       </c>
       <c r="G16" s="1">
-        <v>-1</v>
+        <v>365</v>
       </c>
       <c r="H16" s="1">
-        <v>100</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>71</v>
+        <v>365</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -2384,368 +3334,368 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>709</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>72</v>
+        <v>2195</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="C17" s="1">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D17" s="1">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E17" s="1">
-        <v>65</v>
+        <v>430</v>
       </c>
       <c r="F17" s="1">
-        <v>70</v>
+        <v>440</v>
       </c>
       <c r="G17" s="1">
-        <v>80</v>
+        <v>448</v>
       </c>
       <c r="H17" s="1">
-        <v>88</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0</v>
+        <v>448</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>715</v>
+        <v>2021</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D18" s="1">
         <v>202</v>
       </c>
       <c r="E18" s="1">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="F18" s="1">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G18" s="1">
-        <v>320</v>
+        <v>125</v>
       </c>
       <c r="H18" s="1">
-        <v>399</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>62</v>
+        <v>288</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>79</v>
+        <v>23</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M18" s="1">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>801</v>
+        <v>2022</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="C19" s="1">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D19" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E19" s="1">
-        <v>65</v>
+        <v>255</v>
       </c>
       <c r="F19" s="1">
-        <v>70</v>
+        <v>275</v>
       </c>
       <c r="G19" s="1">
-        <v>88</v>
+        <v>320</v>
       </c>
       <c r="H19" s="1">
-        <v>99</v>
+        <v>399</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>802</v>
+        <v>2023</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C20" s="1">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D20" s="1">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="E20" s="1">
-        <v>18</v>
+        <v>190</v>
       </c>
       <c r="F20" s="1">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="G20" s="1">
-        <v>35</v>
+        <v>280</v>
       </c>
       <c r="H20" s="1">
-        <v>49</v>
+        <v>399</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>87</v>
+        <v>4</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>901</v>
+        <v>2024</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="C21" s="1">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D21" s="1">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E21" s="1">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F21" s="1">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G21" s="1">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H21" s="1">
-        <v>120</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>902</v>
+        <v>2031</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D22" s="1">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E22" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F22" s="1">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G22" s="1">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H22" s="1">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>903</v>
+        <v>2032</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="C23" s="1">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D23" s="1">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E23" s="1">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F23" s="1">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="G23" s="1">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="H23" s="1">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>2033</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="1">
+        <v>103</v>
+      </c>
+      <c r="D24" s="1">
+        <v>203</v>
+      </c>
+      <c r="E24" s="1">
+        <v>108</v>
+      </c>
+      <c r="F24" s="1">
+        <v>120</v>
+      </c>
+      <c r="G24" s="1">
+        <v>135</v>
+      </c>
+      <c r="H24" s="1">
+        <v>138</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="M23" s="1">
+      <c r="M24" s="1">
         <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="1">
-        <v>904</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="1">
-        <v>107</v>
-      </c>
-      <c r="D24" s="1">
-        <v>208</v>
-      </c>
-      <c r="E24" s="1">
-        <v>45</v>
-      </c>
-      <c r="F24" s="1">
-        <v>55</v>
-      </c>
-      <c r="G24" s="1">
-        <v>75</v>
-      </c>
-      <c r="H24" s="1">
-        <v>200</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>905</v>
+        <v>2034</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="C25" s="1">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D25" s="1">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E25" s="1">
-        <v>75</v>
+        <v>246</v>
       </c>
       <c r="F25" s="1">
-        <v>95</v>
+        <v>265</v>
       </c>
       <c r="G25" s="1">
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="H25" s="1">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>96</v>
+        <v>43</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -2753,327 +3703,327 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>1101</v>
+        <v>2035</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="C26" s="1">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D26" s="1">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E26" s="1">
-        <v>400</v>
+        <v>85</v>
       </c>
       <c r="F26" s="1">
-        <v>700</v>
+        <v>90</v>
       </c>
       <c r="G26" s="1">
-        <v>999</v>
+        <v>120</v>
       </c>
       <c r="H26" s="1">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>105</v>
+        <v>140</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>1102</v>
+        <v>2036</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="C27" s="1">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D27" s="1">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E27" s="1">
-        <v>600</v>
+        <v>14</v>
       </c>
       <c r="F27" s="1">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="G27" s="1">
-        <v>1500</v>
+        <v>23</v>
       </c>
       <c r="H27" s="1">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>1103</v>
+        <v>2037</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="C28" s="1">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D28" s="1">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E28" s="1">
-        <v>900</v>
+        <v>53</v>
       </c>
       <c r="F28" s="1">
-        <v>1500</v>
+        <v>60</v>
       </c>
       <c r="G28" s="1">
-        <v>1999</v>
+        <v>78</v>
       </c>
       <c r="H28" s="1">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>12</v>
+        <v>78</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>1104</v>
+        <v>2041</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="C29" s="1">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D29" s="1">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E29" s="1">
-        <v>1600</v>
+        <v>64</v>
       </c>
       <c r="F29" s="1">
-        <v>2100</v>
+        <v>70</v>
       </c>
       <c r="G29" s="1">
-        <v>2300</v>
+        <v>88</v>
       </c>
       <c r="H29" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>12</v>
+        <v>60</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>1105</v>
+        <v>2042</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>110</v>
+        <v>174</v>
       </c>
       <c r="C30" s="1">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D30" s="1">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E30" s="1">
-        <v>750</v>
+        <v>20</v>
       </c>
       <c r="F30" s="1">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="G30" s="1">
-        <v>1200</v>
+        <v>35</v>
       </c>
       <c r="H30" s="1">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="M30" s="1">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>1106</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>112</v>
+        <v>2051</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>294</v>
       </c>
       <c r="C31" s="1">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D31" s="1">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E31" s="1">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="F31" s="1">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="G31" s="1">
-        <v>1999</v>
+        <v>60</v>
       </c>
       <c r="H31" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="M31" s="1">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>1107</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>114</v>
+        <v>2052</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>289</v>
       </c>
       <c r="C32" s="1">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D32" s="1">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E32" s="1">
-        <v>1200</v>
+        <v>43</v>
       </c>
       <c r="F32" s="1">
-        <v>1600</v>
+        <v>50</v>
       </c>
       <c r="G32" s="1">
-        <v>1999</v>
+        <v>68</v>
       </c>
       <c r="H32" s="1">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M32" s="1">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>1108</v>
+        <v>2061</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="C33" s="1">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D33" s="1">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E33" s="1">
-        <v>330</v>
+        <v>30</v>
       </c>
       <c r="F33" s="1">
-        <v>650</v>
+        <v>38</v>
       </c>
       <c r="G33" s="1">
-        <v>1250</v>
+        <v>58</v>
       </c>
       <c r="H33" s="1">
-        <v>0</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>105</v>
+        <v>68</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -3081,166 +4031,1273 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>1002</v>
+        <v>2062</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="C34" s="1">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D34" s="1">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E34" s="1">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="F34" s="1">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="G34" s="1">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="H34" s="1">
-        <v>158</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>19</v>
+        <v>75</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>1004</v>
+        <v>2063</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="C35" s="1">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D35" s="1">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E35" s="1">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="F35" s="1">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="G35" s="1">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="H35" s="1">
-        <v>180</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="M35" s="1">
-        <v>0</v>
+        <v>99</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>10003</v>
+        <v>2071</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="C36" s="1">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D36" s="1">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E36" s="1">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="F36" s="1">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="G36" s="1">
+        <v>299</v>
+      </c>
+      <c r="H36" s="1">
         <v>199</v>
       </c>
-      <c r="H36" s="1">
+      <c r="I36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M36" s="1">
         <v>0</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>12001</v>
+        <v>2072</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C37" s="1">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D37" s="1">
+        <v>207</v>
+      </c>
+      <c r="E37" s="1">
+        <v>5</v>
+      </c>
+      <c r="F37" s="1">
+        <v>6</v>
+      </c>
+      <c r="G37" s="1">
+        <v>10</v>
+      </c>
+      <c r="H37" s="1">
+        <v>12</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>2073</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" s="1">
+        <v>118</v>
+      </c>
+      <c r="D38" s="1">
+        <v>207</v>
+      </c>
+      <c r="E38" s="1">
+        <v>15</v>
+      </c>
+      <c r="F38" s="1">
+        <v>20</v>
+      </c>
+      <c r="G38" s="1">
+        <v>28</v>
+      </c>
+      <c r="H38" s="1">
+        <v>35</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E37" s="1">
+      <c r="J38" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>2074</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" s="1">
+        <v>113</v>
+      </c>
+      <c r="D39" s="1">
+        <v>207</v>
+      </c>
+      <c r="E39" s="1">
+        <v>75</v>
+      </c>
+      <c r="F39" s="1">
+        <v>90</v>
+      </c>
+      <c r="G39" s="1">
+        <v>168</v>
+      </c>
+      <c r="H39" s="1">
+        <v>168</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>2151</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="1">
+        <v>106</v>
+      </c>
+      <c r="D40" s="1">
+        <v>215</v>
+      </c>
+      <c r="E40" s="1">
+        <v>15</v>
+      </c>
+      <c r="F40" s="1">
+        <v>20</v>
+      </c>
+      <c r="G40" s="1">
+        <v>28</v>
+      </c>
+      <c r="H40" s="1">
+        <v>35</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
+        <v>2141</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" s="1">
+        <v>103</v>
+      </c>
+      <c r="D41" s="1">
+        <v>214</v>
+      </c>
+      <c r="E41" s="1">
+        <v>23</v>
+      </c>
+      <c r="F41" s="1">
+        <v>26</v>
+      </c>
+      <c r="G41" s="1">
+        <v>38</v>
+      </c>
+      <c r="H41" s="1">
+        <v>39</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
+        <v>2142</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" s="1">
+        <v>113</v>
+      </c>
+      <c r="D42" s="1">
+        <v>214</v>
+      </c>
+      <c r="E42" s="1">
+        <v>89</v>
+      </c>
+      <c r="F42" s="1">
+        <v>100</v>
+      </c>
+      <c r="G42" s="1">
+        <v>140</v>
+      </c>
+      <c r="H42" s="1">
+        <v>168</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
+        <v>2161</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" s="1">
+        <v>118</v>
+      </c>
+      <c r="D43" s="1">
+        <v>216</v>
+      </c>
+      <c r="E43" s="1">
+        <v>78</v>
+      </c>
+      <c r="F43" s="1">
+        <v>85</v>
+      </c>
+      <c r="G43" s="1">
+        <v>115</v>
+      </c>
+      <c r="H43" s="1">
+        <v>125</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
+        <v>2082</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44" s="1">
+        <v>115</v>
+      </c>
+      <c r="D44" s="1">
+        <v>220</v>
+      </c>
+      <c r="E44" s="1">
+        <v>4</v>
+      </c>
+      <c r="F44" s="1">
+        <v>6</v>
+      </c>
+      <c r="G44" s="1">
+        <v>8</v>
+      </c>
+      <c r="H44" s="1">
+        <v>10</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A45" s="1">
+        <v>2081</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" s="1">
+        <v>104</v>
+      </c>
+      <c r="D45" s="1">
+        <v>208</v>
+      </c>
+      <c r="E45" s="1">
+        <v>35</v>
+      </c>
+      <c r="F45" s="1">
         <v>40</v>
       </c>
-      <c r="F37" s="1">
+      <c r="G45" s="1">
         <v>48</v>
       </c>
-      <c r="G37" s="1">
+      <c r="H45" s="1">
+        <v>48</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
+        <v>2082</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="1">
+        <v>104</v>
+      </c>
+      <c r="D46" s="1">
+        <v>208</v>
+      </c>
+      <c r="E46" s="1">
+        <v>45</v>
+      </c>
+      <c r="F46" s="1">
+        <v>55</v>
+      </c>
+      <c r="G46" s="1">
+        <v>75</v>
+      </c>
+      <c r="H46" s="1">
+        <v>80</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A47" s="1">
+        <v>2083</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="1">
+        <v>107</v>
+      </c>
+      <c r="D47" s="1">
+        <v>208</v>
+      </c>
+      <c r="E47" s="1">
+        <v>23</v>
+      </c>
+      <c r="F47" s="1">
+        <v>33</v>
+      </c>
+      <c r="G47" s="1">
         <v>60</v>
       </c>
-      <c r="H37" s="1">
-        <v>60</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>172</v>
+      <c r="H47" s="1">
+        <v>120</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A48" s="1">
+        <v>2084</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="1">
+        <v>107</v>
+      </c>
+      <c r="D48" s="1">
+        <v>208</v>
+      </c>
+      <c r="E48" s="1">
+        <v>35</v>
+      </c>
+      <c r="F48" s="1">
+        <v>45</v>
+      </c>
+      <c r="G48" s="1">
+        <v>80</v>
+      </c>
+      <c r="H48" s="1">
+        <v>150</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A49" s="1">
+        <v>2085</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" s="1">
+        <v>107</v>
+      </c>
+      <c r="D49" s="1">
+        <v>208</v>
+      </c>
+      <c r="E49" s="1">
+        <v>65</v>
+      </c>
+      <c r="F49" s="1">
+        <v>75</v>
+      </c>
+      <c r="G49" s="1">
+        <v>99</v>
+      </c>
+      <c r="H49" s="1">
+        <v>200</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A50" s="1">
+        <v>2086</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" s="1">
+        <v>107</v>
+      </c>
+      <c r="D50" s="1">
+        <v>208</v>
+      </c>
+      <c r="E50" s="1">
+        <v>45</v>
+      </c>
+      <c r="F50" s="1">
+        <v>55</v>
+      </c>
+      <c r="G50" s="1">
+        <v>75</v>
+      </c>
+      <c r="H50" s="1">
+        <v>200</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A51" s="1">
+        <v>2087</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" s="1">
+        <v>107</v>
+      </c>
+      <c r="D51" s="1">
+        <v>208</v>
+      </c>
+      <c r="E51" s="1">
+        <v>75</v>
+      </c>
+      <c r="F51" s="1">
+        <v>95</v>
+      </c>
+      <c r="G51" s="1">
+        <v>150</v>
+      </c>
+      <c r="H51" s="1">
+        <v>230</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A52" s="1">
+        <v>2181</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" s="1">
+        <v>115</v>
+      </c>
+      <c r="D52" s="1">
+        <v>218</v>
+      </c>
+      <c r="E52" s="1">
+        <v>20</v>
+      </c>
+      <c r="F52" s="1">
+        <v>25</v>
+      </c>
+      <c r="G52" s="1">
+        <v>35</v>
+      </c>
+      <c r="H52" s="1">
+        <v>40</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="M52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A53" s="1">
+        <v>2182</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C53" s="1">
+        <v>122</v>
+      </c>
+      <c r="D53" s="1">
+        <v>218</v>
+      </c>
+      <c r="E53" s="1">
+        <v>18</v>
+      </c>
+      <c r="F53" s="1">
+        <v>23</v>
+      </c>
+      <c r="G53" s="1">
+        <v>35</v>
+      </c>
+      <c r="H53" s="1">
+        <v>45</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="M53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A54" s="1">
+        <v>2183</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C54" s="1">
+        <v>113</v>
+      </c>
+      <c r="D54" s="1">
+        <v>218</v>
+      </c>
+      <c r="E54" s="1">
+        <v>5</v>
+      </c>
+      <c r="F54" s="1">
+        <v>8</v>
+      </c>
+      <c r="G54" s="1">
+        <v>10</v>
+      </c>
+      <c r="H54" s="1">
+        <v>10</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A55" s="1">
+        <v>2111</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="1">
+        <v>109</v>
+      </c>
+      <c r="D55" s="1">
+        <v>211</v>
+      </c>
+      <c r="E55" s="1">
+        <v>400</v>
+      </c>
+      <c r="F55" s="1">
+        <v>600</v>
+      </c>
+      <c r="G55" s="1">
+        <v>999</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A56" s="1">
+        <v>2112</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="1">
+        <v>109</v>
+      </c>
+      <c r="D56" s="1">
+        <v>211</v>
+      </c>
+      <c r="E56" s="1">
+        <v>600</v>
+      </c>
+      <c r="F56" s="1">
+        <v>850</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1500</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A57" s="1">
+        <v>2113</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="1">
+        <v>109</v>
+      </c>
+      <c r="D57" s="1">
+        <v>211</v>
+      </c>
+      <c r="E57" s="1">
+        <v>900</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1999</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A58" s="1">
+        <v>2114</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="1">
+        <v>109</v>
+      </c>
+      <c r="D58" s="1">
+        <v>211</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1500</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1800</v>
+      </c>
+      <c r="G58" s="1">
+        <v>2300</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A59" s="1">
+        <v>2115</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="1">
+        <v>109</v>
+      </c>
+      <c r="D59" s="1">
+        <v>211</v>
+      </c>
+      <c r="E59" s="1">
+        <v>750</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1200</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A60" s="1">
+        <v>2116</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" s="1">
+        <v>109</v>
+      </c>
+      <c r="D60" s="1">
+        <v>211</v>
+      </c>
+      <c r="E60" s="1">
+        <v>300</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1999</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A61" s="1">
+        <v>2117</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C61" s="1">
+        <v>109</v>
+      </c>
+      <c r="D61" s="1">
+        <v>211</v>
+      </c>
+      <c r="E61" s="3">
+        <v>780</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="M61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A62" s="1">
+        <v>2117</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C62" s="1">
+        <v>109</v>
+      </c>
+      <c r="D62" s="1">
+        <v>211</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1150</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1999</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="M62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A63" s="1">
+        <v>2118</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="1">
+        <v>109</v>
+      </c>
+      <c r="D63" s="1">
+        <v>211</v>
+      </c>
+      <c r="E63" s="1">
+        <v>330</v>
+      </c>
+      <c r="F63" s="1">
+        <v>650</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1250</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A64" s="1">
+        <v>2091</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="1">
+        <v>116</v>
+      </c>
+      <c r="D64" s="1">
+        <v>209</v>
+      </c>
+      <c r="E64" s="1">
+        <v>35</v>
+      </c>
+      <c r="F64" s="1">
+        <v>80</v>
+      </c>
+      <c r="G64" s="1">
+        <v>148</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3256,20 +5313,23 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -3277,7 +5337,7 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -3288,7 +5348,7 @@
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3299,7 +5359,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -3310,7 +5370,7 @@
         <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -3321,7 +5381,7 @@
         <v>104</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -3332,7 +5392,7 @@
         <v>105</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -3343,7 +5403,7 @@
         <v>106</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -3354,7 +5414,7 @@
         <v>107</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -3365,7 +5425,7 @@
         <v>108</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -3376,7 +5436,7 @@
         <v>109</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -3386,8 +5446,8 @@
       <c r="A12" s="1">
         <v>110</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>135</v>
+      <c r="B12" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -3398,7 +5458,7 @@
         <v>111</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -3409,7 +5469,7 @@
         <v>112</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -3419,8 +5479,8 @@
       <c r="A15" s="1">
         <v>113</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>137</v>
+      <c r="B15" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -3430,8 +5490,8 @@
       <c r="A16" s="1">
         <v>114</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>138</v>
+      <c r="B16" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -3442,7 +5502,7 @@
         <v>115</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -3453,7 +5513,7 @@
         <v>116</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -3464,7 +5524,7 @@
         <v>117</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -3475,24 +5535,55 @@
         <v>118</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="A21" s="1">
+        <v>119</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1">
+        <v>120</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1">
+        <v>121</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
+      <c r="A24" s="1">
+        <v>122</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
@@ -3515,10 +5606,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3528,13 +5619,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3542,7 +5633,7 @@
         <v>200</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3553,7 +5644,7 @@
         <v>201</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -3564,7 +5655,7 @@
         <v>202</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -3575,7 +5666,7 @@
         <v>203</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -3586,7 +5677,7 @@
         <v>204</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -3597,7 +5688,7 @@
         <v>205</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -3608,7 +5699,7 @@
         <v>206</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -3619,7 +5710,7 @@
         <v>207</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -3630,7 +5721,7 @@
         <v>208</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -3641,7 +5732,7 @@
         <v>209</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -3652,7 +5743,7 @@
         <v>210</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -3663,7 +5754,7 @@
         <v>211</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -3674,7 +5765,7 @@
         <v>213</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -3685,7 +5776,7 @@
         <v>214</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -3696,7 +5787,7 @@
         <v>215</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -3707,7 +5798,7 @@
         <v>216</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -3718,7 +5809,7 @@
         <v>217</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>153</v>
+        <v>288</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -3729,7 +5820,7 @@
         <v>218</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -3740,10 +5831,21 @@
         <v>219</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="C20">
         <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>220</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Zzs/Assets/Excel/Item.xlsx
+++ b/Zzs/Assets/Excel/Item.xlsx
@@ -708,7 +708,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="302">
   <si>
     <t>id</t>
   </si>
@@ -728,9 +728,6 @@
     <t>巧克力|香蕉|柠檬|提拉米苏|草莓</t>
   </si>
   <si>
-    <t>可可类似巧克力，香蕉口感比较丝滑（偏浓），柠檬偏淡，提拉米苏居中，草莓也好喝</t>
-  </si>
-  <si>
     <t>as十全鹿丸</t>
   </si>
   <si>
@@ -752,9 +749,6 @@
     <t>埃姆特</t>
   </si>
   <si>
-    <t>经典进口肌酸，瑞典进口，助你力量提升一个档次</t>
-  </si>
-  <si>
     <t>300g</t>
   </si>
   <si>
@@ -770,9 +764,6 @@
     <t>巧克力</t>
   </si>
   <si>
-    <t>主打性价比，蛋白质含量65%，巧克力口味，好喝</t>
-  </si>
-  <si>
     <t>肌肉梦想乳清</t>
   </si>
   <si>
@@ -782,15 +773,9 @@
     <t>5磅</t>
   </si>
   <si>
-    <t>性价比比较高的乳清，蛋白质72%，口感好，带草莓果粒</t>
-  </si>
-  <si>
     <t>肌肉梦想增肌粉</t>
   </si>
   <si>
-    <t>性价比最高且效果好的增肌粉（没有之一）</t>
-  </si>
-  <si>
     <t>肌肉梦想复合肌酸</t>
   </si>
   <si>
@@ -803,9 +788,6 @@
     <t>菠萝</t>
   </si>
   <si>
-    <t>果味肌酸，400g大包装，富含维生素，不喜欢墙皮味可以冲</t>
-  </si>
-  <si>
     <t>肌肉公爵</t>
   </si>
   <si>
@@ -906,9 +888,6 @@
   </si>
   <si>
     <t>衣服</t>
-  </si>
-  <si>
-    <t>绿|黑</t>
   </si>
   <si>
     <t>轮子哥赛季护腕，为你的训练保驾护航，远离伤病</t>
@@ -1124,10 +1103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>吴凡/简单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>200g</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1293,48 +1268,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>增肌粉中最牛逼的，没有之一，碳水7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5%，蛋白质25%</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>康比特旗下，品质最高的粉，蛋白质8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8% 纯分离</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经典五磅乳清，蛋白质75%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乳清的基础上添加了益生菌，吸收效果更好，蛋白质75%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>橙子|葡萄|冰红茶|可乐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1837,31 +1770,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>国产老品牌，品质还算ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性价比高，抖音比较火，小白喜欢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>为数不多的小重量乳清，口味多，蛋白质7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5%</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>进口三重乳清，品质不错，焦糖饼干很nice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1900,31 +1808,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>国产分离，性价比高点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>混合分离，蛋白质9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2%，性价比可以的，小白喜欢</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高端分离系列，价格略贵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不是简单的增肌粉，具体看后边图里的成分表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1938,23 +1821,6 @@
   </si>
   <si>
     <t>性价比高，成交价低的一水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00g肌酸，性价比高，但是网上没有控价</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2244,6 +2110,104 @@
   </si>
   <si>
     <t>嗅盐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前利润少得可怜，不推荐卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性价比比较高的乳清，蛋白质72%，口感偏甜，酸奶和康比特酸奶类似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主打性价比，蛋白质含量65%，巧克力口味，好喝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳清的基础上添加了益生菌，吸收效果更好，蛋白质75%（需要下过单的客户，可先下任何产品 后下单）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经典五磅乳清，蛋白质75%（需要下过单的客户，可先下任何产品 后下单）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国产老品牌，品质还算ok，利润一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性价比高，抖音比较火，小白喜欢，利润一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为数不多的小重量乳清，口味多，蛋白质75%，可以卖卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康比特旗下，品质最高的粉，蛋白质88% 纯分离（需要下过单的客户，可先下任何产品 后下单）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国产分离，性价比高点，利润一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高端分离系列，价格略贵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合分离，蛋白质92%，性价比可以的，小白喜欢，利润还行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性价比最高且效果好的增肌粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增肌粉中比较牛逼的，没有之一，碳水75%，蛋白质25%（需要下过单的客户，可先下任何产品 后下单）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果味肌酸，400g大包装，富含维生素，这个肌酸含量不高，随缘卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>品质可以，配料表现在统一9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9.99%，因为中国不让标100%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500g肌酸，性价比高，但是网上没有控价，利润一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>绿|黑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|紫</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2653,10 +2617,10 @@
   <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B54" sqref="B54"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2684,37 +2648,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
@@ -2752,7 +2716,7 @@
         <v>5</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>6</v>
+        <v>284</v>
       </c>
       <c r="M2" s="1">
         <v>0</v>
@@ -2763,7 +2727,7 @@
         <v>2012</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1">
         <v>108</v>
@@ -2784,19 +2748,19 @@
         <v>468</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>24</v>
+        <v>136</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>285</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
@@ -2804,7 +2768,7 @@
         <v>2013</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <v>102</v>
@@ -2825,19 +2789,19 @@
         <v>400</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>20</v>
+      <c r="L4" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
@@ -2845,7 +2809,7 @@
         <v>2014</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1">
         <v>101</v>
@@ -2866,19 +2830,19 @@
         <v>399</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>156</v>
+        <v>287</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
@@ -2886,7 +2850,7 @@
         <v>2015</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1">
         <v>101</v>
@@ -2907,19 +2871,19 @@
         <v>388</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>155</v>
+        <v>288</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
@@ -2927,7 +2891,7 @@
         <v>2016</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1">
         <v>111</v>
@@ -2948,19 +2912,19 @@
         <v>158</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
@@ -2968,7 +2932,7 @@
         <v>2017</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C8" s="1">
         <v>110</v>
@@ -2989,16 +2953,16 @@
         <v>299</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>245</v>
+        <v>289</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3009,7 +2973,7 @@
         <v>2018</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C9" s="1">
         <v>114</v>
@@ -3030,16 +2994,16 @@
         <v>255</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3050,7 +3014,7 @@
         <v>2019</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C10" s="1">
         <v>119</v>
@@ -3071,19 +3035,19 @@
         <v>95</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>247</v>
+        <v>291</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
@@ -3091,7 +3055,7 @@
         <v>2020</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C11" s="1">
         <v>120</v>
@@ -3112,19 +3076,19 @@
         <v>375</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
@@ -3132,7 +3096,7 @@
         <v>2021</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C12" s="1">
         <v>121</v>
@@ -3153,16 +3117,16 @@
         <v>265</v>
       </c>
       <c r="I12" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="K12" s="3" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3173,7 +3137,7 @@
         <v>2191</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1">
         <v>101</v>
@@ -3194,19 +3158,19 @@
         <v>488</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>154</v>
+        <v>292</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
@@ -3214,7 +3178,7 @@
         <v>2192</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C14" s="1">
         <v>112</v>
@@ -3235,19 +3199,19 @@
         <v>448</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
@@ -3255,7 +3219,7 @@
         <v>2193</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C15" s="1">
         <v>114</v>
@@ -3276,16 +3240,16 @@
         <v>380</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>251</v>
+        <v>293</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -3296,7 +3260,7 @@
         <v>2194</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C16" s="1">
         <v>110</v>
@@ -3317,16 +3281,16 @@
         <v>365</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -3337,7 +3301,7 @@
         <v>2195</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C17" s="1">
         <v>113</v>
@@ -3358,19 +3322,19 @@
         <v>448</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>253</v>
+        <v>294</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
@@ -3378,7 +3342,7 @@
         <v>2021</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1">
         <v>108</v>
@@ -3399,19 +3363,19 @@
         <v>288</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>26</v>
+        <v>138</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>296</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
@@ -3419,7 +3383,7 @@
         <v>2022</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C19" s="1">
         <v>101</v>
@@ -3443,16 +3407,16 @@
         <v>4</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>153</v>
+        <v>297</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
@@ -3460,7 +3424,7 @@
         <v>2023</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C20" s="1">
         <v>112</v>
@@ -3484,16 +3448,16 @@
         <v>4</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
@@ -3501,7 +3465,7 @@
         <v>2024</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C21" s="1">
         <v>113</v>
@@ -3522,16 +3486,16 @@
         <v>48</v>
       </c>
       <c r="I21" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="K21" s="3" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -3542,7 +3506,7 @@
         <v>2031</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1">
         <v>108</v>
@@ -3563,16 +3527,16 @@
         <v>300</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>298</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -3583,7 +3547,7 @@
         <v>2032</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="1">
         <v>105</v>
@@ -3607,16 +3571,16 @@
         <v>4</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>14</v>
+        <v>231</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3624,7 +3588,7 @@
         <v>2033</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1">
         <v>103</v>
@@ -3648,13 +3612,13 @@
         <v>4</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -3665,7 +3629,7 @@
         <v>2034</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C25" s="1">
         <v>103</v>
@@ -3689,13 +3653,13 @@
         <v>4</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -3706,7 +3670,7 @@
         <v>2035</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C26" s="1">
         <v>101</v>
@@ -3727,19 +3691,19 @@
         <v>140</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
@@ -3747,7 +3711,7 @@
         <v>2036</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C27" s="1">
         <v>115</v>
@@ -3768,19 +3732,19 @@
         <v>23</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
@@ -3788,7 +3752,7 @@
         <v>2037</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C28" s="1">
         <v>118</v>
@@ -3809,19 +3773,19 @@
         <v>78</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
@@ -3829,7 +3793,7 @@
         <v>2041</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C29" s="1">
         <v>106</v>
@@ -3850,19 +3814,19 @@
         <v>99</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
@@ -3870,7 +3834,7 @@
         <v>2042</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C30" s="1">
         <v>113</v>
@@ -3891,19 +3855,19 @@
         <v>35</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
@@ -3911,7 +3875,7 @@
         <v>2051</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="C31" s="1">
         <v>117</v>
@@ -3920,10 +3884,10 @@
         <v>205</v>
       </c>
       <c r="E31" s="1">
+        <v>35</v>
+      </c>
+      <c r="F31" s="1">
         <v>40</v>
-      </c>
-      <c r="F31" s="1">
-        <v>48</v>
       </c>
       <c r="G31" s="1">
         <v>60</v>
@@ -3931,20 +3895,20 @@
       <c r="H31" s="1">
         <v>60</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>127</v>
+      <c r="I31" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
@@ -3952,7 +3916,7 @@
         <v>2052</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C32" s="1">
         <v>117</v>
@@ -3973,19 +3937,19 @@
         <v>88</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
@@ -3993,7 +3957,7 @@
         <v>2061</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C33" s="1">
         <v>101</v>
@@ -4014,16 +3978,16 @@
         <v>68</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -4034,7 +3998,7 @@
         <v>2062</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C34" s="1">
         <v>117</v>
@@ -4055,16 +4019,16 @@
         <v>75</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -4075,7 +4039,7 @@
         <v>2063</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C35" s="1">
         <v>117</v>
@@ -4096,19 +4060,19 @@
         <v>99</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
@@ -4116,7 +4080,7 @@
         <v>2071</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36" s="1">
         <v>100</v>
@@ -4140,13 +4104,13 @@
         <v>2</v>
       </c>
       <c r="J36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -4157,7 +4121,7 @@
         <v>2072</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C37" s="1">
         <v>115</v>
@@ -4178,19 +4142,19 @@
         <v>12</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
@@ -4198,7 +4162,7 @@
         <v>2073</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C38" s="1">
         <v>118</v>
@@ -4219,19 +4183,19 @@
         <v>35</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
@@ -4239,7 +4203,7 @@
         <v>2074</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C39" s="1">
         <v>113</v>
@@ -4260,19 +4224,19 @@
         <v>168</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
@@ -4280,7 +4244,7 @@
         <v>2151</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C40" s="1">
         <v>106</v>
@@ -4301,19 +4265,19 @@
         <v>35</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
@@ -4321,7 +4285,7 @@
         <v>2141</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C41" s="1">
         <v>103</v>
@@ -4342,19 +4306,19 @@
         <v>39</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
@@ -4362,7 +4326,7 @@
         <v>2142</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C42" s="1">
         <v>113</v>
@@ -4383,19 +4347,19 @@
         <v>168</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
@@ -4403,7 +4367,7 @@
         <v>2161</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C43" s="1">
         <v>118</v>
@@ -4424,19 +4388,19 @@
         <v>125</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.15">
@@ -4444,7 +4408,7 @@
         <v>2082</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C44" s="1">
         <v>115</v>
@@ -4465,16 +4429,16 @@
         <v>10</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -4485,7 +4449,7 @@
         <v>2081</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C45" s="1">
         <v>104</v>
@@ -4506,19 +4470,19 @@
         <v>48</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
@@ -4526,7 +4490,7 @@
         <v>2082</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C46" s="1">
         <v>104</v>
@@ -4547,19 +4511,19 @@
         <v>80</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
@@ -4567,7 +4531,7 @@
         <v>2083</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C47" s="1">
         <v>107</v>
@@ -4579,7 +4543,7 @@
         <v>23</v>
       </c>
       <c r="F47" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G47" s="1">
         <v>60</v>
@@ -4588,19 +4552,19 @@
         <v>120</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>66</v>
+        <v>32</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>301</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
@@ -4608,7 +4572,7 @@
         <v>2084</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C48" s="1">
         <v>107</v>
@@ -4629,19 +4593,19 @@
         <v>150</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>66</v>
+        <v>32</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>301</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.15">
@@ -4649,7 +4613,7 @@
         <v>2085</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C49" s="1">
         <v>107</v>
@@ -4670,16 +4634,16 @@
         <v>200</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -4690,7 +4654,7 @@
         <v>2086</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C50" s="1">
         <v>107</v>
@@ -4711,16 +4675,16 @@
         <v>200</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>66</v>
+        <v>32</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>301</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -4731,7 +4695,7 @@
         <v>2087</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C51" s="1">
         <v>107</v>
@@ -4752,16 +4716,16 @@
         <v>230</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -4772,7 +4736,7 @@
         <v>2181</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C52" s="1">
         <v>115</v>
@@ -4793,16 +4757,16 @@
         <v>40</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -4813,7 +4777,7 @@
         <v>2182</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C53" s="1">
         <v>122</v>
@@ -4834,16 +4798,16 @@
         <v>45</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -4854,7 +4818,7 @@
         <v>2183</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="C54" s="1">
         <v>113</v>
@@ -4875,19 +4839,19 @@
         <v>10</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.15">
@@ -4895,7 +4859,7 @@
         <v>2111</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C55" s="1">
         <v>109</v>
@@ -4916,19 +4880,19 @@
         <v>0</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.15">
@@ -4936,7 +4900,7 @@
         <v>2112</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C56" s="1">
         <v>109</v>
@@ -4957,19 +4921,19 @@
         <v>0</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.15">
@@ -4977,7 +4941,7 @@
         <v>2113</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C57" s="1">
         <v>109</v>
@@ -4998,19 +4962,19 @@
         <v>0</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.15">
@@ -5018,7 +4982,7 @@
         <v>2114</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C58" s="1">
         <v>109</v>
@@ -5039,19 +5003,19 @@
         <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.15">
@@ -5059,7 +5023,7 @@
         <v>2115</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C59" s="1">
         <v>109</v>
@@ -5080,16 +5044,16 @@
         <v>0</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -5100,7 +5064,7 @@
         <v>2116</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C60" s="1">
         <v>109</v>
@@ -5121,16 +5085,16 @@
         <v>0</v>
       </c>
       <c r="I60" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L60" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -5141,7 +5105,7 @@
         <v>2117</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="C61" s="1">
         <v>109</v>
@@ -5162,16 +5126,16 @@
         <v>0</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -5182,7 +5146,7 @@
         <v>2117</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="C62" s="1">
         <v>109</v>
@@ -5203,16 +5167,16 @@
         <v>0</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -5223,7 +5187,7 @@
         <v>2118</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C63" s="1">
         <v>109</v>
@@ -5244,16 +5208,16 @@
         <v>0</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="M63" s="1">
         <v>0</v>
@@ -5264,7 +5228,7 @@
         <v>2091</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C64" s="1">
         <v>116</v>
@@ -5285,19 +5249,19 @@
         <v>0</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -5323,13 +5287,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -5337,7 +5301,7 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -5348,7 +5312,7 @@
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -5359,7 +5323,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -5370,7 +5334,7 @@
         <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -5381,7 +5345,7 @@
         <v>104</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -5392,7 +5356,7 @@
         <v>105</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -5403,7 +5367,7 @@
         <v>106</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -5414,7 +5378,7 @@
         <v>107</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -5425,7 +5389,7 @@
         <v>108</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -5436,7 +5400,7 @@
         <v>109</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -5447,7 +5411,7 @@
         <v>110</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -5458,7 +5422,7 @@
         <v>111</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -5469,7 +5433,7 @@
         <v>112</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -5480,7 +5444,7 @@
         <v>113</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -5491,7 +5455,7 @@
         <v>114</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -5502,7 +5466,7 @@
         <v>115</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -5513,7 +5477,7 @@
         <v>116</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -5524,7 +5488,7 @@
         <v>117</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -5535,7 +5499,7 @@
         <v>118</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -5546,7 +5510,7 @@
         <v>119</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -5557,7 +5521,7 @@
         <v>120</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -5568,7 +5532,7 @@
         <v>121</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -5579,7 +5543,7 @@
         <v>122</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -5619,13 +5583,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5633,7 +5597,7 @@
         <v>200</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -5644,7 +5608,7 @@
         <v>201</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -5655,7 +5619,7 @@
         <v>202</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -5666,7 +5630,7 @@
         <v>203</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -5677,7 +5641,7 @@
         <v>204</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -5688,7 +5652,7 @@
         <v>205</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -5699,7 +5663,7 @@
         <v>206</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -5710,7 +5674,7 @@
         <v>207</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -5721,7 +5685,7 @@
         <v>208</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -5732,7 +5696,7 @@
         <v>209</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -5743,7 +5707,7 @@
         <v>210</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -5754,7 +5718,7 @@
         <v>211</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -5765,7 +5729,7 @@
         <v>213</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -5776,7 +5740,7 @@
         <v>214</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -5787,7 +5751,7 @@
         <v>215</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -5798,7 +5762,7 @@
         <v>216</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -5809,7 +5773,7 @@
         <v>217</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -5820,7 +5784,7 @@
         <v>218</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -5831,7 +5795,7 @@
         <v>219</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -5842,7 +5806,7 @@
         <v>220</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C21">
         <v>4</v>

--- a/Zzs/Assets/Excel/Item.xlsx
+++ b/Zzs/Assets/Excel/Item.xlsx
@@ -708,7 +708,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="315">
   <si>
     <t>id</t>
   </si>
@@ -930,9 +930,6 @@
   </si>
   <si>
     <t>ifbb</t>
-  </si>
-  <si>
-    <t>含金量不如cbba，不需要考试</t>
   </si>
   <si>
     <t>欧盟</t>
@@ -1280,14 +1277,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>健身行业敲门砖，含金量偏高，保有量最大，需要线上考试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>健身行业敲门砖，含金量偏高，保有量最大，需要线上考试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>smart乳清</t>
   </si>
   <si>
@@ -2017,10 +2006,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>待填充</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>keep谷氨酰胺</t>
     </r>
@@ -2208,6 +2193,74 @@
       </rPr>
       <t>|紫</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>km高纯谷氨酰胺大容量500g，100份用量，美国🇺🇸原装进口，数量不多，超高品质，25年4月底到期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>km谷氨酰胺500g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健身行业敲门砖，含金量偏高，保有量最大，需要线上考试。报名赠送书籍和衣服，这些考试需要。考试流程：1.下载海健身app，客户实名认证，转账后发我客户信息（名字电话号地址）2.腾讯会议露脸，工作人员截图。3.海健身app线上答题考试。以上具体时间等我通知即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要考试，整体周期一个月，交钱等待即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋子</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>潮服|胖虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体看尺码表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看尺码表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲锋衣主要是防风，保暖靠内胆，所有款式都可搭配内胆，客户不满意支持退换货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲锋衣带内胆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣服和鞋子</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲锋衣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2319,15 +2372,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2335,8 +2385,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2614,13 +2664,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2640,45 +2690,45 @@
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
@@ -2716,7 +2766,7 @@
         <v>5</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M2" s="1">
         <v>0</v>
@@ -2747,17 +2797,17 @@
       <c r="H3" s="1">
         <v>468</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>135</v>
+      <c r="I3" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>285</v>
+      <c r="K3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>10</v>
@@ -2797,8 +2847,8 @@
       <c r="K4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>286</v>
+      <c r="L4" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>10</v>
@@ -2829,8 +2879,8 @@
       <c r="H5" s="1">
         <v>399</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>139</v>
+      <c r="I5" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>41</v>
@@ -2838,11 +2888,11 @@
       <c r="K5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>254</v>
+      <c r="L5" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
@@ -2870,20 +2920,20 @@
       <c r="H6" s="1">
         <v>388</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>139</v>
+      <c r="I6" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>254</v>
+      <c r="K6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
@@ -2891,7 +2941,7 @@
         <v>2016</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="1">
         <v>111</v>
@@ -2911,17 +2961,17 @@
       <c r="H7" s="1">
         <v>158</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>147</v>
+      <c r="I7" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>14</v>
@@ -2931,8 +2981,8 @@
       <c r="A8" s="1">
         <v>2017</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>151</v>
+      <c r="B8" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C8" s="1">
         <v>110</v>
@@ -2952,17 +3002,17 @@
       <c r="H8" s="1">
         <v>299</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>289</v>
+      <c r="I8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2972,8 +3022,8 @@
       <c r="A9" s="1">
         <v>2018</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>152</v>
+      <c r="B9" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="C9" s="1">
         <v>114</v>
@@ -2993,17 +3043,17 @@
       <c r="H9" s="1">
         <v>255</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>290</v>
+      <c r="I9" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3013,8 +3063,8 @@
       <c r="A10" s="1">
         <v>2019</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>153</v>
+      <c r="B10" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="C10" s="1">
         <v>119</v>
@@ -3034,28 +3084,28 @@
       <c r="H10" s="1">
         <v>95</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>254</v>
+      <c r="I10" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>2020</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>154</v>
+      <c r="B11" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="C11" s="1">
         <v>120</v>
@@ -3075,17 +3125,17 @@
       <c r="H11" s="1">
         <v>375</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>233</v>
+      <c r="I11" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>14</v>
@@ -3096,7 +3146,7 @@
         <v>2021</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C12" s="1">
         <v>121</v>
@@ -3116,17 +3166,17 @@
       <c r="H12" s="1">
         <v>265</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>234</v>
+      <c r="I12" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3157,28 +3207,28 @@
       <c r="H13" s="1">
         <v>488</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>254</v>
+      <c r="I13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>2192</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>155</v>
+      <c r="B14" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="C14" s="1">
         <v>112</v>
@@ -3198,17 +3248,17 @@
       <c r="H14" s="1">
         <v>448</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>235</v>
+      <c r="I14" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>14</v>
@@ -3218,8 +3268,8 @@
       <c r="A15" s="1">
         <v>2193</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>179</v>
+      <c r="B15" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="C15" s="1">
         <v>114</v>
@@ -3239,17 +3289,17 @@
       <c r="H15" s="1">
         <v>380</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>293</v>
+      <c r="I15" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -3259,8 +3309,8 @@
       <c r="A16" s="1">
         <v>2194</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>156</v>
+      <c r="B16" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="C16" s="1">
         <v>110</v>
@@ -3280,17 +3330,17 @@
       <c r="H16" s="1">
         <v>365</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>295</v>
+      <c r="I16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -3300,8 +3350,8 @@
       <c r="A17" s="1">
         <v>2195</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>157</v>
+      <c r="B17" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="C17" s="1">
         <v>113</v>
@@ -3321,17 +3371,17 @@
       <c r="H17" s="1">
         <v>448</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>294</v>
+      <c r="I17" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>14</v>
@@ -3362,20 +3412,20 @@
       <c r="H18" s="1">
         <v>288</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>137</v>
+      <c r="I18" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>253</v>
+      <c r="K18" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
@@ -3409,14 +3459,14 @@
       <c r="J19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>254</v>
+      <c r="K19" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
@@ -3424,7 +3474,7 @@
         <v>2023</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C20" s="1">
         <v>112</v>
@@ -3447,14 +3497,14 @@
       <c r="I20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>236</v>
+      <c r="J20" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>10</v>
@@ -3465,7 +3515,7 @@
         <v>2024</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C21" s="1">
         <v>113</v>
@@ -3485,17 +3535,17 @@
       <c r="H21" s="1">
         <v>48</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>237</v>
+      <c r="I21" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -3535,8 +3585,8 @@
       <c r="K22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>298</v>
+      <c r="L22" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -3570,17 +3620,17 @@
       <c r="I23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>254</v>
+      <c r="J23" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3614,8 +3664,8 @@
       <c r="J24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>231</v>
+      <c r="K24" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>35</v>
@@ -3655,8 +3705,8 @@
       <c r="J25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K25" s="3" t="s">
-        <v>231</v>
+      <c r="K25" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>38</v>
@@ -3690,20 +3740,20 @@
       <c r="H26" s="1">
         <v>140</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>139</v>
+      <c r="I26" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>254</v>
+      <c r="K26" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
@@ -3711,7 +3761,7 @@
         <v>2036</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C27" s="1">
         <v>115</v>
@@ -3731,20 +3781,20 @@
       <c r="H27" s="1">
         <v>23</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>254</v>
+      <c r="I27" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
@@ -3752,7 +3802,7 @@
         <v>2037</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C28" s="1">
         <v>118</v>
@@ -3772,20 +3822,20 @@
       <c r="H28" s="1">
         <v>78</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>256</v>
+      <c r="I28" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
@@ -3819,14 +3869,14 @@
       <c r="J29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>145</v>
+      <c r="K29" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>254</v>
+      <c r="M29" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
@@ -3834,7 +3884,7 @@
         <v>2042</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C30" s="1">
         <v>113</v>
@@ -3854,17 +3904,17 @@
       <c r="H30" s="1">
         <v>35</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>240</v>
+      <c r="I30" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>14</v>
@@ -3874,8 +3924,8 @@
       <c r="A31" s="1">
         <v>2051</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>275</v>
+      <c r="B31" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="C31" s="1">
         <v>117</v>
@@ -3895,28 +3945,28 @@
       <c r="H31" s="1">
         <v>60</v>
       </c>
-      <c r="I31" s="3" t="s">
-        <v>188</v>
+      <c r="I31" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="J31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="L31" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="M31" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>2052</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>270</v>
+      <c r="B32" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="C32" s="1">
         <v>117</v>
@@ -3936,99 +3986,99 @@
       <c r="H32" s="1">
         <v>88</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>274</v>
+      <c r="I32" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>2061</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>46</v>
+        <v>2053</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="C33" s="1">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="D33" s="1">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E33" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F33" s="1">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="G33" s="1">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="H33" s="1">
-        <v>68</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M33" s="1">
-        <v>0</v>
+        <v>99</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c r="C34" s="1">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D34" s="1">
         <v>206</v>
       </c>
       <c r="E34" s="1">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F34" s="1">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G34" s="1">
+        <v>58</v>
+      </c>
+      <c r="H34" s="1">
         <v>68</v>
       </c>
-      <c r="H34" s="1">
-        <v>75</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>241</v>
+      <c r="I34" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -4036,10 +4086,10 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C35" s="1">
         <v>117</v>
@@ -4048,233 +4098,233 @@
         <v>206</v>
       </c>
       <c r="E35" s="1">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F35" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G35" s="1">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="H35" s="1">
-        <v>99</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>255</v>
+        <v>75</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>2071</v>
+        <v>2063</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="C36" s="1">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="D36" s="1">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E36" s="1">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="F36" s="1">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="G36" s="1">
-        <v>299</v>
+        <v>95</v>
       </c>
       <c r="H36" s="1">
-        <v>199</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M36" s="1">
-        <v>0</v>
+        <v>99</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>165</v>
+        <v>6</v>
       </c>
       <c r="C37" s="1">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D37" s="1">
         <v>207</v>
       </c>
       <c r="E37" s="1">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="F37" s="1">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="G37" s="1">
-        <v>10</v>
+        <v>299</v>
       </c>
       <c r="H37" s="1">
-        <v>12</v>
-      </c>
-      <c r="I37" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="J37" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>255</v>
+      <c r="I37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C38" s="1">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D38" s="1">
         <v>207</v>
       </c>
       <c r="E38" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F38" s="1">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G38" s="1">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H38" s="1">
-        <v>35</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>244</v>
+        <v>12</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C39" s="1">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D39" s="1">
         <v>207</v>
       </c>
       <c r="E39" s="1">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="F39" s="1">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="G39" s="1">
-        <v>168</v>
+        <v>28</v>
       </c>
       <c r="H39" s="1">
-        <v>168</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>245</v>
+        <v>35</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>14</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <v>2151</v>
+        <v>2074</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>55</v>
+        <v>164</v>
       </c>
       <c r="C40" s="1">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D40" s="1">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E40" s="1">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="F40" s="1">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="G40" s="1">
-        <v>28</v>
+        <v>168</v>
       </c>
       <c r="H40" s="1">
-        <v>35</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>56</v>
+        <v>168</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>14</v>
@@ -4282,215 +4332,215 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <v>2141</v>
+        <v>2151</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>169</v>
+        <v>55</v>
       </c>
       <c r="C41" s="1">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D41" s="1">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E41" s="1">
+        <v>15</v>
+      </c>
+      <c r="F41" s="1">
+        <v>20</v>
+      </c>
+      <c r="G41" s="1">
+        <v>28</v>
+      </c>
+      <c r="H41" s="1">
+        <v>35</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F41" s="1">
-        <v>26</v>
-      </c>
-      <c r="G41" s="1">
-        <v>38</v>
-      </c>
-      <c r="H41" s="1">
-        <v>39</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>246</v>
+      <c r="J41" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>255</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C42" s="1">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D42" s="1">
         <v>214</v>
       </c>
       <c r="E42" s="1">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="F42" s="1">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="G42" s="1">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="H42" s="1">
-        <v>168</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>247</v>
+        <v>39</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>14</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
-        <v>2161</v>
+        <v>2142</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C43" s="1">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D43" s="1">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E43" s="1">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F43" s="1">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="G43" s="1">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="H43" s="1">
-        <v>125</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="J43" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="K43" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>248</v>
+      <c r="L43" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>255</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
-        <v>2082</v>
+        <v>2161</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C44" s="1">
+        <v>118</v>
+      </c>
+      <c r="D44" s="1">
+        <v>216</v>
+      </c>
+      <c r="E44" s="1">
+        <v>78</v>
+      </c>
+      <c r="F44" s="1">
+        <v>85</v>
+      </c>
+      <c r="G44" s="1">
         <v>115</v>
       </c>
-      <c r="D44" s="1">
-        <v>220</v>
-      </c>
-      <c r="E44" s="1">
-        <v>4</v>
-      </c>
-      <c r="F44" s="1">
-        <v>6</v>
-      </c>
-      <c r="G44" s="1">
-        <v>8</v>
-      </c>
       <c r="H44" s="1">
-        <v>10</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="M44" s="1">
-        <v>0</v>
+        <v>125</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
-        <v>2081</v>
+        <v>2201</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C45" s="1">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D45" s="1">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="E45" s="1">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="F45" s="1">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="G45" s="1">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="H45" s="1">
-        <v>48</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="C46" s="1">
         <v>104</v>
@@ -4499,28 +4549,28 @@
         <v>208</v>
       </c>
       <c r="E46" s="1">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F46" s="1">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G46" s="1">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="H46" s="1">
-        <v>80</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>14</v>
@@ -4528,40 +4578,40 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C47" s="1">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D47" s="1">
         <v>208</v>
       </c>
       <c r="E47" s="1">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F47" s="1">
+        <v>55</v>
+      </c>
+      <c r="G47" s="1">
+        <v>75</v>
+      </c>
+      <c r="H47" s="1">
+        <v>80</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K47" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="1">
-        <v>60</v>
-      </c>
-      <c r="H47" s="1">
-        <v>120</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>301</v>
-      </c>
       <c r="L47" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>14</v>
@@ -4569,10 +4619,10 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="C48" s="1">
         <v>107</v>
@@ -4581,16 +4631,16 @@
         <v>208</v>
       </c>
       <c r="E48" s="1">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F48" s="1">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G48" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H48" s="1">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>59</v>
@@ -4598,11 +4648,11 @@
       <c r="J48" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>301</v>
+      <c r="K48" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>14</v>
@@ -4610,10 +4660,10 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
-        <v>2085</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>132</v>
+        <v>2084</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="C49" s="1">
         <v>107</v>
@@ -4622,38 +4672,38 @@
         <v>208</v>
       </c>
       <c r="E49" s="1">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="F49" s="1">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="G49" s="1">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="H49" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>62</v>
+        <v>32</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M49" s="1">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
-        <v>2086</v>
-      </c>
-      <c r="B50" s="3" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C50" s="1">
@@ -4663,28 +4713,28 @@
         <v>208</v>
       </c>
       <c r="E50" s="1">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="F50" s="1">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G50" s="1">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="H50" s="1">
         <v>200</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>301</v>
+        <v>29</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -4692,10 +4742,10 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
-        <v>2087</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>133</v>
+        <v>2086</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="C51" s="1">
         <v>107</v>
@@ -4704,28 +4754,28 @@
         <v>208</v>
       </c>
       <c r="E51" s="1">
+        <v>45</v>
+      </c>
+      <c r="F51" s="1">
+        <v>55</v>
+      </c>
+      <c r="G51" s="1">
         <v>75</v>
       </c>
-      <c r="F51" s="1">
-        <v>95</v>
-      </c>
-      <c r="G51" s="1">
-        <v>150</v>
-      </c>
       <c r="H51" s="1">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>64</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>62</v>
+        <v>32</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -4733,40 +4783,40 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
-        <v>2181</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>173</v>
+        <v>2087</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="C52" s="1">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D52" s="1">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="E52" s="1">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="F52" s="1">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="G52" s="1">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="H52" s="1">
-        <v>40</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>222</v>
+        <v>230</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>251</v>
+        <v>62</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -4774,40 +4824,40 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C53" s="1">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D53" s="1">
         <v>218</v>
       </c>
       <c r="E53" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F53" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G53" s="1">
         <v>35</v>
       </c>
       <c r="H53" s="1">
-        <v>45</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>223</v>
+        <v>40</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L53" s="3" t="s">
-        <v>252</v>
+      <c r="L53" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -4815,92 +4865,92 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
-        <v>2183</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>283</v>
+        <v>2182</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="C54" s="1">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D54" s="1">
         <v>218</v>
       </c>
       <c r="E54" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F54" s="1">
+        <v>23</v>
+      </c>
+      <c r="G54" s="1">
+        <v>35</v>
+      </c>
+      <c r="H54" s="1">
+        <v>45</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K54" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G54" s="1">
-        <v>10</v>
-      </c>
-      <c r="H54" s="1">
-        <v>10</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>254</v>
+      <c r="L54" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M54" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
-        <v>2111</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>67</v>
+        <v>2183</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="C55" s="1">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D55" s="1">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="E55" s="1">
-        <v>400</v>
+        <v>5</v>
       </c>
       <c r="F55" s="1">
-        <v>600</v>
+        <v>8</v>
       </c>
       <c r="G55" s="1">
-        <v>999</v>
+        <v>10</v>
       </c>
       <c r="H55" s="1">
-        <v>0</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="M55" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C56" s="1">
         <v>109</v>
@@ -4909,19 +4959,19 @@
         <v>211</v>
       </c>
       <c r="E56" s="1">
+        <v>400</v>
+      </c>
+      <c r="F56" s="1">
         <v>600</v>
       </c>
-      <c r="F56" s="1">
-        <v>850</v>
-      </c>
       <c r="G56" s="1">
-        <v>1500</v>
+        <v>999</v>
       </c>
       <c r="H56" s="1">
         <v>0</v>
       </c>
-      <c r="I56" s="3" t="s">
-        <v>146</v>
+      <c r="I56" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>8</v>
@@ -4929,8 +4979,8 @@
       <c r="K56" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L56" s="3" t="s">
-        <v>149</v>
+      <c r="L56" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>10</v>
@@ -4938,10 +4988,10 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C57" s="1">
         <v>109</v>
@@ -4950,19 +5000,19 @@
         <v>211</v>
       </c>
       <c r="E57" s="1">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="F57" s="1">
-        <v>1200</v>
+        <v>850</v>
       </c>
       <c r="G57" s="1">
-        <v>1999</v>
+        <v>1500</v>
       </c>
       <c r="H57" s="1">
         <v>0</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>146</v>
+      <c r="I57" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>8</v>
@@ -4970,8 +5020,8 @@
       <c r="K57" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>148</v>
+      <c r="L57" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>10</v>
@@ -4979,10 +5029,10 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C58" s="1">
         <v>109</v>
@@ -4991,19 +5041,19 @@
         <v>211</v>
       </c>
       <c r="E58" s="1">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F58" s="1">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="G58" s="1">
-        <v>2300</v>
+        <v>1999</v>
       </c>
       <c r="H58" s="1">
         <v>0</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>146</v>
+      <c r="I58" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>8</v>
@@ -5011,8 +5061,8 @@
       <c r="K58" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>148</v>
+      <c r="L58" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>10</v>
@@ -5020,10 +5070,10 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C59" s="1">
         <v>109</v>
@@ -5032,19 +5082,19 @@
         <v>211</v>
       </c>
       <c r="E59" s="1">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="F59" s="1">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="G59" s="1">
-        <v>1200</v>
+        <v>2300</v>
       </c>
       <c r="H59" s="1">
         <v>0</v>
       </c>
-      <c r="I59" s="1" t="s">
-        <v>69</v>
+      <c r="I59" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>8</v>
@@ -5052,19 +5102,19 @@
       <c r="K59" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L59" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M59" s="1">
-        <v>0</v>
+      <c r="L59" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C60" s="1">
         <v>109</v>
@@ -5073,13 +5123,13 @@
         <v>211</v>
       </c>
       <c r="E60" s="1">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="F60" s="1">
         <v>1000</v>
       </c>
       <c r="G60" s="1">
-        <v>1999</v>
+        <v>1200</v>
       </c>
       <c r="H60" s="1">
         <v>0</v>
@@ -5093,8 +5143,8 @@
       <c r="K60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L60" s="1" t="s">
-        <v>76</v>
+      <c r="L60" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -5102,10 +5152,10 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>276</v>
+        <v>74</v>
       </c>
       <c r="C61" s="1">
         <v>109</v>
@@ -5113,14 +5163,14 @@
       <c r="D61" s="1">
         <v>211</v>
       </c>
-      <c r="E61" s="3">
-        <v>780</v>
-      </c>
-      <c r="F61" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1600</v>
+      <c r="E61" s="1">
+        <v>300</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1999</v>
       </c>
       <c r="H61" s="1">
         <v>0</v>
@@ -5134,8 +5184,8 @@
       <c r="K61" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L61" s="3" t="s">
-        <v>278</v>
+      <c r="L61" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -5145,8 +5195,8 @@
       <c r="A62" s="1">
         <v>2117</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>277</v>
+      <c r="B62" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="C62" s="1">
         <v>109</v>
@@ -5154,14 +5204,14 @@
       <c r="D62" s="1">
         <v>211</v>
       </c>
-      <c r="E62" s="3">
-        <v>1150</v>
-      </c>
-      <c r="F62" s="3">
+      <c r="E62" s="2">
+        <v>780</v>
+      </c>
+      <c r="F62" s="2">
+        <v>1100</v>
+      </c>
+      <c r="G62" s="2">
         <v>1600</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1999</v>
       </c>
       <c r="H62" s="1">
         <v>0</v>
@@ -5175,8 +5225,8 @@
       <c r="K62" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>279</v>
+      <c r="L62" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -5184,10 +5234,10 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
-        <v>2118</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>77</v>
+        <v>2117</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="C63" s="1">
         <v>109</v>
@@ -5195,14 +5245,14 @@
       <c r="D63" s="1">
         <v>211</v>
       </c>
-      <c r="E63" s="1">
-        <v>330</v>
-      </c>
-      <c r="F63" s="1">
-        <v>650</v>
-      </c>
-      <c r="G63" s="1">
-        <v>1250</v>
+      <c r="E63" s="2">
+        <v>1150</v>
+      </c>
+      <c r="F63" s="2">
+        <v>1600</v>
+      </c>
+      <c r="G63" s="2">
+        <v>1999</v>
       </c>
       <c r="H63" s="1">
         <v>0</v>
@@ -5216,8 +5266,8 @@
       <c r="K63" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L63" s="1" t="s">
-        <v>78</v>
+      <c r="L63" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="M63" s="1">
         <v>0</v>
@@ -5225,43 +5275,166 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
-        <v>2091</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>134</v>
+        <v>2118</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C64" s="1">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D64" s="1">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E64" s="1">
-        <v>35</v>
+        <v>330</v>
       </c>
       <c r="F64" s="1">
-        <v>80</v>
+        <v>650</v>
       </c>
       <c r="G64" s="1">
-        <v>148</v>
+        <v>1250</v>
       </c>
       <c r="H64" s="1">
         <v>0</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="L64" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A65" s="1">
+        <v>2091</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" s="1">
+        <v>116</v>
+      </c>
+      <c r="D65" s="1">
+        <v>209</v>
+      </c>
+      <c r="E65" s="1">
+        <v>35</v>
+      </c>
+      <c r="F65" s="1">
+        <v>80</v>
+      </c>
+      <c r="G65" s="1">
+        <v>148</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J65" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="M64" s="1" t="s">
+      <c r="K65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M65" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A66" s="1">
+        <v>2211</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C66" s="1">
+        <v>123</v>
+      </c>
+      <c r="D66" s="1">
+        <v>221</v>
+      </c>
+      <c r="E66" s="1">
+        <v>78</v>
+      </c>
+      <c r="F66" s="1">
+        <v>85</v>
+      </c>
+      <c r="G66" s="1">
+        <v>99</v>
+      </c>
+      <c r="H66" s="1">
+        <v>300</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A67" s="1">
+        <v>2212</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C67" s="1">
+        <v>123</v>
+      </c>
+      <c r="D67" s="1">
+        <v>221</v>
+      </c>
+      <c r="E67" s="1">
+        <v>145</v>
+      </c>
+      <c r="F67" s="1">
+        <v>155</v>
+      </c>
+      <c r="G67" s="1">
+        <v>199</v>
+      </c>
+      <c r="H67" s="1">
+        <v>500</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -5274,26 +5447,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>127</v>
+      <c r="C1" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -5301,9 +5476,9 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2">
+        <v>89</v>
+      </c>
+      <c r="C2" s="1">
         <v>2</v>
       </c>
     </row>
@@ -5314,7 +5489,7 @@
       <c r="B3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5322,10 +5497,10 @@
       <c r="A4" s="1">
         <v>102</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5336,7 +5511,7 @@
       <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>2</v>
       </c>
     </row>
@@ -5347,7 +5522,7 @@
       <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>2</v>
       </c>
     </row>
@@ -5358,7 +5533,7 @@
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>2</v>
       </c>
     </row>
@@ -5369,7 +5544,7 @@
       <c r="B8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5380,7 +5555,7 @@
       <c r="B9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5391,7 +5566,7 @@
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5402,7 +5577,7 @@
       <c r="B11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>3</v>
       </c>
     </row>
@@ -5410,10 +5585,10 @@
       <c r="A12" s="1">
         <v>110</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="1">
         <v>2</v>
       </c>
     </row>
@@ -5422,9 +5597,9 @@
         <v>111</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13">
+        <v>79</v>
+      </c>
+      <c r="C13" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5433,9 +5608,9 @@
         <v>112</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14">
+        <v>91</v>
+      </c>
+      <c r="C14" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5443,10 +5618,10 @@
       <c r="A15" s="1">
         <v>113</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="1">
         <v>2</v>
       </c>
     </row>
@@ -5454,10 +5629,10 @@
       <c r="A16" s="1">
         <v>114</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="1">
         <v>2</v>
       </c>
     </row>
@@ -5466,9 +5641,9 @@
         <v>115</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17">
+        <v>92</v>
+      </c>
+      <c r="C17" s="1">
         <v>2</v>
       </c>
     </row>
@@ -5477,9 +5652,9 @@
         <v>116</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18">
+        <v>83</v>
+      </c>
+      <c r="C18" s="1">
         <v>3</v>
       </c>
     </row>
@@ -5488,9 +5663,9 @@
         <v>117</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19">
+        <v>118</v>
+      </c>
+      <c r="C19" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5499,9 +5674,9 @@
         <v>118</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20">
+        <v>122</v>
+      </c>
+      <c r="C20" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5509,10 +5684,10 @@
       <c r="A21" s="1">
         <v>119</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21" s="1">
         <v>2</v>
       </c>
     </row>
@@ -5520,10 +5695,10 @@
       <c r="A22" s="1">
         <v>120</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C22">
+      <c r="B22" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C22" s="1">
         <v>2</v>
       </c>
     </row>
@@ -5531,10 +5706,10 @@
       <c r="A23" s="1">
         <v>121</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23" s="1">
         <v>2</v>
       </c>
     </row>
@@ -5542,24 +5717,34 @@
       <c r="A24" s="1">
         <v>122</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="2"/>
+      <c r="A25" s="1">
+        <v>123</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="2"/>
+      <c r="A26" s="1">
+        <v>124</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5570,36 +5755,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>200</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5607,10 +5794,10 @@
       <c r="A3" s="1">
         <v>201</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="1">
         <v>2</v>
       </c>
     </row>
@@ -5619,9 +5806,9 @@
         <v>202</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4">
+        <v>94</v>
+      </c>
+      <c r="C4" s="1">
         <v>3</v>
       </c>
     </row>
@@ -5630,9 +5817,9 @@
         <v>203</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5">
+        <v>95</v>
+      </c>
+      <c r="C5" s="1">
         <v>3</v>
       </c>
     </row>
@@ -5641,9 +5828,9 @@
         <v>204</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6">
+        <v>96</v>
+      </c>
+      <c r="C6" s="1">
         <v>3</v>
       </c>
     </row>
@@ -5652,9 +5839,9 @@
         <v>205</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7">
+        <v>97</v>
+      </c>
+      <c r="C7" s="1">
         <v>3</v>
       </c>
     </row>
@@ -5663,9 +5850,9 @@
         <v>206</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8">
+        <v>98</v>
+      </c>
+      <c r="C8" s="1">
         <v>3</v>
       </c>
     </row>
@@ -5674,9 +5861,9 @@
         <v>207</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9">
+        <v>99</v>
+      </c>
+      <c r="C9" s="1">
         <v>4</v>
       </c>
     </row>
@@ -5685,9 +5872,9 @@
         <v>208</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="C10" s="1">
         <v>4</v>
       </c>
     </row>
@@ -5696,9 +5883,9 @@
         <v>209</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11">
+        <v>83</v>
+      </c>
+      <c r="C11" s="1">
         <v>7</v>
       </c>
     </row>
@@ -5706,10 +5893,10 @@
       <c r="A12" s="1">
         <v>210</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="1">
         <v>7</v>
       </c>
     </row>
@@ -5720,7 +5907,7 @@
       <c r="B13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>6</v>
       </c>
     </row>
@@ -5729,9 +5916,9 @@
         <v>213</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14">
+        <v>102</v>
+      </c>
+      <c r="C14" s="1">
         <v>5</v>
       </c>
     </row>
@@ -5739,10 +5926,10 @@
       <c r="A15" s="1">
         <v>214</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="1">
         <v>4</v>
       </c>
     </row>
@@ -5751,9 +5938,9 @@
         <v>215</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16">
+        <v>104</v>
+      </c>
+      <c r="C16" s="1">
         <v>4</v>
       </c>
     </row>
@@ -5762,9 +5949,9 @@
         <v>216</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17">
+        <v>105</v>
+      </c>
+      <c r="C17" s="1">
         <v>4</v>
       </c>
     </row>
@@ -5772,10 +5959,10 @@
       <c r="A18" s="1">
         <v>217</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C18" s="1">
         <v>8</v>
       </c>
     </row>
@@ -5783,10 +5970,10 @@
       <c r="A19" s="1">
         <v>218</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="1">
         <v>5</v>
       </c>
     </row>
@@ -5794,10 +5981,10 @@
       <c r="A20" s="1">
         <v>219</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="1">
         <v>2</v>
       </c>
     </row>
@@ -5806,10 +5993,21 @@
         <v>220</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C21">
+        <v>172</v>
+      </c>
+      <c r="C21" s="1">
         <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>221</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C22" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Zzs/Assets/Excel/Item.xlsx
+++ b/Zzs/Assets/Excel/Item.xlsx
@@ -708,7 +708,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="326">
   <si>
     <t>id</t>
   </si>
@@ -1304,10 +1304,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黑天鹅分离乳清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mts碳水能量粉</t>
   </si>
   <si>
@@ -1419,10 +1415,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>老何</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吴凡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1472,19 +1464,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿荣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小羽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>健美佳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>啊亮/胖虎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1542,23 +1526,6 @@
   </si>
   <si>
     <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.4磅</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>1</t>
     </r>
     <r>
@@ -1780,23 +1747,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>首位分离乳清，成分对标on金标乳清，蛋白质</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>75%</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不是简单的增肌粉，具体看后边图里的成分表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1846,10 +1796,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自然选手外挂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>性价比最高的左旋，没有之一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1931,23 +1877,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>玫瑰|牛奶</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|香草|香蕉|巧克力|薄荷|蓝莓|教父|比基尼</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>抹茶|草莓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1991,10 +1920,6 @@
   </si>
   <si>
     <t>原味|香草|巧克力|草莓|椰子|菠萝|抹茶|香蕉酸奶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货少，具体私聊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2090,10 +2015,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一口提神醒脑，开车，训练，上课都能用来提神，保存好可以用好几个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>嗅盐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2135,10 +2056,6 @@
   </si>
   <si>
     <t>国产分离，性价比高点，利润一般</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高端分离系列，价格略贵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2220,14 +2137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鞋子</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>潮服|胖虎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>具体看尺码表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2261,6 +2170,115 @@
   </si>
   <si>
     <t>冲锋衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莆田鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰|牛奶|香草|香蕉|巧克力|薄荷|芒果|哈密瓜|巧克力花生碎|咖啡|教父|比基尼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待填充</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌：黑魔法士，体重70kg以上一天两个，体重70kg以下一天一个，具体功能看图（这个利润高一点，淘宝没低价）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌：Turk，体重70kg以上一天两个，体重70kg以下一天一个，具体功能看图（这个利润低一点，淘宝卖95）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肌霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turk土克甾酮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镁粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0ml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好多味道，一般随机发了懒得选了让客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一口提神醒脑，开车，训练，上课都能用来提神，保存好可以用好几个月。可以当赠品送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练防滑，不沾衣服，不飞粉，挺好用的，可以当赠品送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sweet磷虾油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60粒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweetfate磷虾油，56%磷脂+95％吸收率 ，一瓶90粒一天3粒 一个月用量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胖虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胖虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首位分离乳清，成分对标on金标乳清，蛋白质75%。不同口味价格有差异，整体在400左右，具体价格私聊即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莆田鞋，非正品！！！可在得物找图，具体价格私聊，因为款式太多，无法放在上边（一般情况下，不是特别冷门的款式，比如lv什么的，都会有4-5个档次，每个档次之间的价格相差40左右，参考这个价格区间： 150 190 230 280 330这几个档次，不需要每一双都问我，客户问你们的话，可以先报一个价格，然后从我这问到价格后，给它选合适的档次 下单即可…）支持七天无理由退换货，如果是产品原因我这边包邮费，非产品原因 客户出邮费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2342,7 +2360,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2354,13 +2372,94 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2372,7 +2471,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2386,6 +2485,108 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2664,13 +2865,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B66" sqref="B66"/>
+      <selection pane="bottomRight" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2691,2750 +2892,2873 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+    <row r="2" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="17">
         <v>2011</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="17">
         <v>100</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="17">
         <v>201</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="17">
         <v>220</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="17">
         <v>225</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="17">
         <v>240</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="17">
         <v>240</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="17">
         <v>5</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="M2" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="17">
+        <v>2012</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="17">
+        <v>108</v>
+      </c>
+      <c r="D3" s="17">
+        <v>201</v>
+      </c>
+      <c r="E3" s="17">
+        <v>178</v>
+      </c>
+      <c r="F3" s="17">
+        <v>200</v>
+      </c>
+      <c r="G3" s="17">
+        <v>265</v>
+      </c>
+      <c r="H3" s="17">
+        <v>265</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="17">
+        <v>2013</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="17">
+        <v>102</v>
+      </c>
+      <c r="D4" s="17">
+        <v>201</v>
+      </c>
+      <c r="E4" s="17">
+        <v>135</v>
+      </c>
+      <c r="F4" s="17">
+        <v>150</v>
+      </c>
+      <c r="G4" s="17">
+        <v>199</v>
+      </c>
+      <c r="H4" s="17">
+        <v>199</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="17">
+        <v>2014</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="17">
+        <v>101</v>
+      </c>
+      <c r="D5" s="17">
+        <v>201</v>
+      </c>
+      <c r="E5" s="17">
+        <v>265</v>
+      </c>
+      <c r="F5" s="17">
+        <v>275</v>
+      </c>
+      <c r="G5" s="17">
+        <v>319</v>
+      </c>
+      <c r="H5" s="17">
+        <v>319</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="17">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="17">
+        <v>101</v>
+      </c>
+      <c r="D6" s="17">
+        <v>201</v>
+      </c>
+      <c r="E6" s="17">
+        <v>295</v>
+      </c>
+      <c r="F6" s="17">
+        <v>315</v>
+      </c>
+      <c r="G6" s="17">
+        <v>360</v>
+      </c>
+      <c r="H6" s="17">
+        <v>360</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="17">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="17">
+        <v>111</v>
+      </c>
+      <c r="D7" s="17">
+        <v>201</v>
+      </c>
+      <c r="E7" s="17">
+        <v>95</v>
+      </c>
+      <c r="F7" s="17">
+        <v>110</v>
+      </c>
+      <c r="G7" s="17">
+        <v>140</v>
+      </c>
+      <c r="H7" s="17">
+        <v>140</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="17">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="17">
+        <v>110</v>
+      </c>
+      <c r="D8" s="17">
+        <v>201</v>
+      </c>
+      <c r="E8" s="17">
+        <v>279</v>
+      </c>
+      <c r="F8" s="17">
+        <v>285</v>
+      </c>
+      <c r="G8" s="17">
+        <v>299</v>
+      </c>
+      <c r="H8" s="17">
+        <v>299</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="M8" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="17">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="17">
+        <v>114</v>
+      </c>
+      <c r="D9" s="17">
+        <v>201</v>
+      </c>
+      <c r="E9" s="17">
+        <v>205</v>
+      </c>
+      <c r="F9" s="17">
+        <v>215</v>
+      </c>
+      <c r="G9" s="17">
+        <v>245</v>
+      </c>
+      <c r="H9" s="17">
+        <v>245</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="M9" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="17">
+        <v>2019</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="17">
+        <v>119</v>
+      </c>
+      <c r="D10" s="17">
+        <v>201</v>
+      </c>
+      <c r="E10" s="17">
+        <v>75</v>
+      </c>
+      <c r="F10" s="17">
+        <v>80</v>
+      </c>
+      <c r="G10" s="17">
+        <v>95</v>
+      </c>
+      <c r="H10" s="17">
+        <v>95</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="17">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="17">
+        <v>120</v>
+      </c>
+      <c r="D11" s="17">
+        <v>201</v>
+      </c>
+      <c r="E11" s="17">
+        <v>320</v>
+      </c>
+      <c r="F11" s="17">
+        <v>330</v>
+      </c>
+      <c r="G11" s="17">
+        <v>365</v>
+      </c>
+      <c r="H11" s="17">
+        <v>365</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="M11" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="17">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="17">
+        <v>121</v>
+      </c>
+      <c r="D12" s="17">
+        <v>201</v>
+      </c>
+      <c r="E12" s="17">
+        <v>225</v>
+      </c>
+      <c r="F12" s="17">
+        <v>235</v>
+      </c>
+      <c r="G12" s="17">
+        <v>260</v>
+      </c>
+      <c r="H12" s="17">
+        <v>260</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="M12" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="19">
+        <v>2191</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="19">
+        <v>101</v>
+      </c>
+      <c r="D13" s="19">
+        <v>219</v>
+      </c>
+      <c r="E13" s="19">
+        <v>365</v>
+      </c>
+      <c r="F13" s="19">
+        <v>385</v>
+      </c>
+      <c r="G13" s="19">
+        <v>430</v>
+      </c>
+      <c r="H13" s="19">
+        <v>430</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="19">
+        <v>2192</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="19">
+        <v>112</v>
+      </c>
+      <c r="D14" s="19">
+        <v>219</v>
+      </c>
+      <c r="E14" s="19">
+        <v>400</v>
+      </c>
+      <c r="F14" s="19">
+        <v>410</v>
+      </c>
+      <c r="G14" s="19">
+        <v>440</v>
+      </c>
+      <c r="H14" s="19">
+        <v>440</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="19">
+        <v>2193</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="19">
+        <v>114</v>
+      </c>
+      <c r="D15" s="19">
+        <v>219</v>
+      </c>
+      <c r="E15" s="19">
+        <v>355</v>
+      </c>
+      <c r="F15" s="19">
+        <v>360</v>
+      </c>
+      <c r="G15" s="19">
+        <v>380</v>
+      </c>
+      <c r="H15" s="19">
+        <v>380</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="M15" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="19">
+        <v>2194</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="19">
+        <v>110</v>
+      </c>
+      <c r="D16" s="19">
+        <v>219</v>
+      </c>
+      <c r="E16" s="19">
+        <v>323</v>
+      </c>
+      <c r="F16" s="19">
+        <v>335</v>
+      </c>
+      <c r="G16" s="19">
+        <v>365</v>
+      </c>
+      <c r="H16" s="19">
+        <v>365</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="L16" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M16" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="17" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="21">
+        <v>2021</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="21">
+        <v>108</v>
+      </c>
+      <c r="D17" s="21">
+        <v>202</v>
+      </c>
+      <c r="E17" s="21">
+        <v>70</v>
+      </c>
+      <c r="F17" s="21">
+        <v>80</v>
+      </c>
+      <c r="G17" s="21">
+        <v>125</v>
+      </c>
+      <c r="H17" s="21">
+        <v>125</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="21">
+        <v>2022</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="21">
+        <v>101</v>
+      </c>
+      <c r="D18" s="21">
+        <v>202</v>
+      </c>
+      <c r="E18" s="21">
+        <v>255</v>
+      </c>
+      <c r="F18" s="21">
+        <v>275</v>
+      </c>
+      <c r="G18" s="21">
+        <v>320</v>
+      </c>
+      <c r="H18" s="21">
+        <v>320</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="M18" s="22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="21">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="21">
+        <v>112</v>
+      </c>
+      <c r="D19" s="21">
+        <v>202</v>
+      </c>
+      <c r="E19" s="21">
+        <v>190</v>
+      </c>
+      <c r="F19" s="21">
+        <v>200</v>
+      </c>
+      <c r="G19" s="21">
+        <v>280</v>
+      </c>
+      <c r="H19" s="21">
+        <v>280</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="L19" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="21">
+        <v>2024</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="21">
+        <v>113</v>
+      </c>
+      <c r="D20" s="21">
+        <v>202</v>
+      </c>
+      <c r="E20" s="21">
+        <v>35</v>
+      </c>
+      <c r="F20" s="21">
+        <v>40</v>
+      </c>
+      <c r="G20" s="21">
+        <v>48</v>
+      </c>
+      <c r="H20" s="21">
+        <v>48</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="M20" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="23">
+        <v>2031</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="23">
+        <v>108</v>
+      </c>
+      <c r="D21" s="23">
+        <v>203</v>
+      </c>
+      <c r="E21" s="23">
+        <v>40</v>
+      </c>
+      <c r="F21" s="23">
+        <v>60</v>
+      </c>
+      <c r="G21" s="23">
+        <v>88</v>
+      </c>
+      <c r="H21" s="23">
+        <v>88</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="M21" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="23">
+        <v>2032</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="23">
+        <v>105</v>
+      </c>
+      <c r="D22" s="23">
+        <v>203</v>
+      </c>
+      <c r="E22" s="23">
+        <v>45</v>
+      </c>
+      <c r="F22" s="23">
+        <v>55</v>
+      </c>
+      <c r="G22" s="23">
+        <v>68</v>
+      </c>
+      <c r="H22" s="23">
+        <v>68</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="K22" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="L22" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="M22" s="24" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="23">
+        <v>2033</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="23">
+        <v>103</v>
+      </c>
+      <c r="D23" s="23">
+        <v>203</v>
+      </c>
+      <c r="E23" s="23">
+        <v>108</v>
+      </c>
+      <c r="F23" s="23">
+        <v>120</v>
+      </c>
+      <c r="G23" s="23">
+        <v>135</v>
+      </c>
+      <c r="H23" s="23">
+        <v>135</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="L23" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="M23" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="23">
+        <v>2034</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="23">
+        <v>103</v>
+      </c>
+      <c r="D24" s="23">
+        <v>203</v>
+      </c>
+      <c r="E24" s="23">
+        <v>246</v>
+      </c>
+      <c r="F24" s="23">
+        <v>265</v>
+      </c>
+      <c r="G24" s="23">
+        <v>310</v>
+      </c>
+      <c r="H24" s="23">
+        <v>310</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="L24" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="M24" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="23">
+        <v>2035</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="23">
+        <v>101</v>
+      </c>
+      <c r="D25" s="23">
+        <v>203</v>
+      </c>
+      <c r="E25" s="23">
+        <v>85</v>
+      </c>
+      <c r="F25" s="23">
+        <v>90</v>
+      </c>
+      <c r="G25" s="23">
+        <v>120</v>
+      </c>
+      <c r="H25" s="23">
+        <v>120</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="L25" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="M25" s="24" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="23">
+        <v>2036</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="23">
+        <v>115</v>
+      </c>
+      <c r="D26" s="23">
+        <v>203</v>
+      </c>
+      <c r="E26" s="23">
+        <v>13</v>
+      </c>
+      <c r="F26" s="23">
         <v>18</v>
       </c>
-      <c r="C3" s="1">
-        <v>108</v>
-      </c>
-      <c r="D3" s="1">
-        <v>201</v>
-      </c>
-      <c r="E3" s="1">
-        <v>178</v>
-      </c>
-      <c r="F3" s="1">
-        <v>200</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="G26" s="23">
+        <v>23</v>
+      </c>
+      <c r="H26" s="23">
+        <v>23</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="K26" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="L26" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="M26" s="24" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="23">
+        <v>2037</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="23">
+        <v>118</v>
+      </c>
+      <c r="D27" s="23">
+        <v>203</v>
+      </c>
+      <c r="E27" s="23">
+        <v>53</v>
+      </c>
+      <c r="F27" s="23">
+        <v>60</v>
+      </c>
+      <c r="G27" s="23">
+        <v>78</v>
+      </c>
+      <c r="H27" s="23">
+        <v>78</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="K27" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="L27" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="M27" s="24" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="25">
+        <v>2041</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="25">
+        <v>106</v>
+      </c>
+      <c r="D28" s="25">
+        <v>204</v>
+      </c>
+      <c r="E28" s="25">
+        <v>64</v>
+      </c>
+      <c r="F28" s="25">
+        <v>70</v>
+      </c>
+      <c r="G28" s="25">
+        <v>88</v>
+      </c>
+      <c r="H28" s="25">
+        <v>88</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="L28" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="M28" s="26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="25">
+        <v>2042</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="25">
+        <v>113</v>
+      </c>
+      <c r="D29" s="25">
+        <v>204</v>
+      </c>
+      <c r="E29" s="25">
+        <v>20</v>
+      </c>
+      <c r="F29" s="25">
+        <v>25</v>
+      </c>
+      <c r="G29" s="25">
+        <v>35</v>
+      </c>
+      <c r="H29" s="25">
+        <v>35</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="J29" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="K29" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="L29" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="M29" s="25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="21">
+        <v>2051</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="C30" s="21">
+        <v>117</v>
+      </c>
+      <c r="D30" s="21">
+        <v>205</v>
+      </c>
+      <c r="E30" s="21">
+        <v>35</v>
+      </c>
+      <c r="F30" s="21">
+        <v>40</v>
+      </c>
+      <c r="G30" s="21">
+        <v>60</v>
+      </c>
+      <c r="H30" s="21">
+        <v>60</v>
+      </c>
+      <c r="I30" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="K30" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="L30" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="M30" s="21" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="21">
+        <v>2052</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="C31" s="21">
+        <v>117</v>
+      </c>
+      <c r="D31" s="21">
+        <v>205</v>
+      </c>
+      <c r="E31" s="21">
+        <v>43</v>
+      </c>
+      <c r="F31" s="21">
+        <v>50</v>
+      </c>
+      <c r="G31" s="21">
+        <v>68</v>
+      </c>
+      <c r="H31" s="21">
+        <v>68</v>
+      </c>
+      <c r="I31" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="J31" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="K31" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="L31" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="M31" s="21" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="21">
+        <v>2053</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="C32" s="21">
+        <v>117</v>
+      </c>
+      <c r="D32" s="21">
+        <v>205</v>
+      </c>
+      <c r="E32" s="21">
+        <v>60</v>
+      </c>
+      <c r="F32" s="21">
+        <v>70</v>
+      </c>
+      <c r="G32" s="21">
+        <v>99</v>
+      </c>
+      <c r="H32" s="21">
+        <v>99</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="K32" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="L32" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="M32" s="21" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="27">
+        <v>2061</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="27">
+        <v>101</v>
+      </c>
+      <c r="D33" s="27">
+        <v>206</v>
+      </c>
+      <c r="E33" s="27">
+        <v>30</v>
+      </c>
+      <c r="F33" s="27">
+        <v>38</v>
+      </c>
+      <c r="G33" s="27">
+        <v>58</v>
+      </c>
+      <c r="H33" s="27">
+        <v>58</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="K33" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="L33" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="M33" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="27">
+        <v>2062</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" s="27">
+        <v>117</v>
+      </c>
+      <c r="D34" s="27">
+        <v>206</v>
+      </c>
+      <c r="E34" s="27">
+        <v>43</v>
+      </c>
+      <c r="F34" s="27">
+        <v>50</v>
+      </c>
+      <c r="G34" s="27">
+        <v>68</v>
+      </c>
+      <c r="H34" s="27">
+        <v>68</v>
+      </c>
+      <c r="I34" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J34" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="K34" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="L34" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="M34" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="27">
+        <v>2063</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" s="27">
+        <v>117</v>
+      </c>
+      <c r="D35" s="27">
+        <v>206</v>
+      </c>
+      <c r="E35" s="27">
+        <v>60</v>
+      </c>
+      <c r="F35" s="27">
+        <v>70</v>
+      </c>
+      <c r="G35" s="27">
+        <v>95</v>
+      </c>
+      <c r="H35" s="27">
+        <v>95</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J35" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="K35" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="L35" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M35" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="29">
+        <v>2071</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="29">
+        <v>100</v>
+      </c>
+      <c r="D36" s="29">
+        <v>207</v>
+      </c>
+      <c r="E36" s="29">
+        <v>135</v>
+      </c>
+      <c r="F36" s="29">
+        <v>145</v>
+      </c>
+      <c r="G36" s="29">
+        <v>299</v>
+      </c>
+      <c r="H36" s="29">
+        <v>299</v>
+      </c>
+      <c r="I36" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J36" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K36" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="L36" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="M36" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="29">
+        <v>2072</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" s="29">
+        <v>115</v>
+      </c>
+      <c r="D37" s="29">
+        <v>207</v>
+      </c>
+      <c r="E37" s="29">
+        <v>5</v>
+      </c>
+      <c r="F37" s="29">
+        <v>6</v>
+      </c>
+      <c r="G37" s="29">
+        <v>10</v>
+      </c>
+      <c r="H37" s="29">
+        <v>10</v>
+      </c>
+      <c r="I37" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="J37" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="K37" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="L37" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="M37" s="29" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="29">
+        <v>2073</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" s="29">
+        <v>118</v>
+      </c>
+      <c r="D38" s="29">
+        <v>207</v>
+      </c>
+      <c r="E38" s="29">
+        <v>15</v>
+      </c>
+      <c r="F38" s="29">
+        <v>20</v>
+      </c>
+      <c r="G38" s="29">
+        <v>28</v>
+      </c>
+      <c r="H38" s="29">
+        <v>28</v>
+      </c>
+      <c r="I38" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="J38" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="K38" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="L38" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="M38" s="29" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="29">
+        <v>2074</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" s="29">
+        <v>113</v>
+      </c>
+      <c r="D39" s="29">
+        <v>207</v>
+      </c>
+      <c r="E39" s="29">
+        <v>73</v>
+      </c>
+      <c r="F39" s="29">
+        <v>90</v>
+      </c>
+      <c r="G39" s="29">
+        <v>148</v>
+      </c>
+      <c r="H39" s="29">
+        <v>148</v>
+      </c>
+      <c r="I39" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="J39" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="K39" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="L39" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="M39" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="29">
+        <v>2075</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="C40" s="29">
+        <v>113</v>
+      </c>
+      <c r="D40" s="29">
+        <v>207</v>
+      </c>
+      <c r="E40" s="29">
+        <v>65</v>
+      </c>
+      <c r="F40" s="29">
+        <v>75</v>
+      </c>
+      <c r="G40" s="29">
+        <v>95</v>
+      </c>
+      <c r="H40" s="29">
+        <v>95</v>
+      </c>
+      <c r="I40" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="J40" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="K40" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="L40" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="M40" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="19">
+        <v>2151</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="19">
+        <v>106</v>
+      </c>
+      <c r="D41" s="19">
+        <v>215</v>
+      </c>
+      <c r="E41" s="19">
+        <v>15</v>
+      </c>
+      <c r="F41" s="19">
+        <v>20</v>
+      </c>
+      <c r="G41" s="19">
+        <v>28</v>
+      </c>
+      <c r="H41" s="19">
+        <v>28</v>
+      </c>
+      <c r="I41" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J41" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K41" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="M41" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="25">
+        <v>2141</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" s="25">
+        <v>103</v>
+      </c>
+      <c r="D42" s="25">
+        <v>214</v>
+      </c>
+      <c r="E42" s="25">
+        <v>23</v>
+      </c>
+      <c r="F42" s="25">
+        <v>26</v>
+      </c>
+      <c r="G42" s="25">
+        <v>38</v>
+      </c>
+      <c r="H42" s="25">
+        <v>38</v>
+      </c>
+      <c r="I42" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="J42" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="K42" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="L42" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="M42" s="25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="25">
+        <v>2142</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43" s="25">
+        <v>113</v>
+      </c>
+      <c r="D43" s="25">
+        <v>214</v>
+      </c>
+      <c r="E43" s="25">
+        <v>89</v>
+      </c>
+      <c r="F43" s="25">
+        <v>100</v>
+      </c>
+      <c r="G43" s="25">
+        <v>140</v>
+      </c>
+      <c r="H43" s="25">
+        <v>140</v>
+      </c>
+      <c r="I43" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="J43" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="K43" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="L43" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="M43" s="25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="31">
+        <v>2161</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="C44" s="31">
+        <v>118</v>
+      </c>
+      <c r="D44" s="31">
+        <v>216</v>
+      </c>
+      <c r="E44" s="31">
+        <v>75</v>
+      </c>
+      <c r="F44" s="31">
+        <v>80</v>
+      </c>
+      <c r="G44" s="31">
+        <v>110</v>
+      </c>
+      <c r="H44" s="31">
+        <v>110</v>
+      </c>
+      <c r="I44" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="J44" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="K44" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="L44" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="M44" s="31" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="31">
+        <v>2162</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="C45" s="31">
+        <v>118</v>
+      </c>
+      <c r="D45" s="31">
+        <v>216</v>
+      </c>
+      <c r="E45" s="31">
+        <v>30</v>
+      </c>
+      <c r="F45" s="31">
+        <v>36</v>
+      </c>
+      <c r="G45" s="31">
+        <v>48</v>
+      </c>
+      <c r="H45" s="31">
+        <v>48</v>
+      </c>
+      <c r="I45" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="J45" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="K45" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="L45" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="M45" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="33">
+        <v>2201</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" s="33">
+        <v>115</v>
+      </c>
+      <c r="D46" s="33">
+        <v>220</v>
+      </c>
+      <c r="E46" s="33">
+        <v>4</v>
+      </c>
+      <c r="F46" s="33">
+        <v>6</v>
+      </c>
+      <c r="G46" s="33">
+        <v>8</v>
+      </c>
+      <c r="H46" s="33">
+        <v>8</v>
+      </c>
+      <c r="I46" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="J46" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="K46" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="L46" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="M46" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="35">
+        <v>2081</v>
+      </c>
+      <c r="B47" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" s="35">
+        <v>104</v>
+      </c>
+      <c r="D47" s="35">
+        <v>208</v>
+      </c>
+      <c r="E47" s="35">
+        <v>35</v>
+      </c>
+      <c r="F47" s="35">
+        <v>40</v>
+      </c>
+      <c r="G47" s="35">
+        <v>48</v>
+      </c>
+      <c r="H47" s="35">
+        <v>48</v>
+      </c>
+      <c r="I47" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="J47" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="K47" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="L47" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="M47" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="35">
+        <v>2082</v>
+      </c>
+      <c r="B48" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="35">
+        <v>104</v>
+      </c>
+      <c r="D48" s="35">
+        <v>208</v>
+      </c>
+      <c r="E48" s="35">
+        <v>45</v>
+      </c>
+      <c r="F48" s="35">
+        <v>55</v>
+      </c>
+      <c r="G48" s="35">
+        <v>75</v>
+      </c>
+      <c r="H48" s="35">
+        <v>75</v>
+      </c>
+      <c r="I48" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="J48" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="K48" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="L48" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="M48" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="35">
+        <v>2083</v>
+      </c>
+      <c r="B49" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="35">
+        <v>107</v>
+      </c>
+      <c r="D49" s="35">
+        <v>208</v>
+      </c>
+      <c r="E49" s="35">
+        <v>23</v>
+      </c>
+      <c r="F49" s="35">
+        <v>30</v>
+      </c>
+      <c r="G49" s="35">
+        <v>60</v>
+      </c>
+      <c r="H49" s="35">
+        <v>60</v>
+      </c>
+      <c r="I49" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="J49" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="K49" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="L49" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="M49" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="35">
+        <v>2084</v>
+      </c>
+      <c r="B50" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="35">
+        <v>107</v>
+      </c>
+      <c r="D50" s="35">
+        <v>208</v>
+      </c>
+      <c r="E50" s="35">
+        <v>35</v>
+      </c>
+      <c r="F50" s="35">
+        <v>45</v>
+      </c>
+      <c r="G50" s="35">
+        <v>80</v>
+      </c>
+      <c r="H50" s="35">
+        <v>80</v>
+      </c>
+      <c r="I50" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="J50" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="K50" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="L50" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="M50" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="35">
+        <v>2085</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" s="35">
+        <v>107</v>
+      </c>
+      <c r="D51" s="35">
+        <v>208</v>
+      </c>
+      <c r="E51" s="35">
+        <v>65</v>
+      </c>
+      <c r="F51" s="35">
+        <v>75</v>
+      </c>
+      <c r="G51" s="35">
+        <v>99</v>
+      </c>
+      <c r="H51" s="35">
+        <v>99</v>
+      </c>
+      <c r="I51" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="J51" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="K51" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="L51" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="M51" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="35">
+        <v>2086</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="35">
+        <v>107</v>
+      </c>
+      <c r="D52" s="35">
+        <v>208</v>
+      </c>
+      <c r="E52" s="35">
+        <v>45</v>
+      </c>
+      <c r="F52" s="35">
+        <v>55</v>
+      </c>
+      <c r="G52" s="35">
+        <v>75</v>
+      </c>
+      <c r="H52" s="35">
+        <v>75</v>
+      </c>
+      <c r="I52" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="J52" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="L52" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="M52" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="35">
+        <v>2087</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" s="35">
+        <v>107</v>
+      </c>
+      <c r="D53" s="35">
+        <v>208</v>
+      </c>
+      <c r="E53" s="35">
+        <v>75</v>
+      </c>
+      <c r="F53" s="35">
+        <v>95</v>
+      </c>
+      <c r="G53" s="35">
+        <v>150</v>
+      </c>
+      <c r="H53" s="35">
+        <v>150</v>
+      </c>
+      <c r="I53" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="J53" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="K53" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="L53" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="M53" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="21">
+        <v>2181</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C54" s="21">
+        <v>115</v>
+      </c>
+      <c r="D54" s="21">
+        <v>218</v>
+      </c>
+      <c r="E54" s="21">
+        <v>20</v>
+      </c>
+      <c r="F54" s="21">
+        <v>25</v>
+      </c>
+      <c r="G54" s="21">
+        <v>35</v>
+      </c>
+      <c r="H54" s="21">
+        <v>35</v>
+      </c>
+      <c r="I54" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="J54" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="K54" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L54" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="M54" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="21">
+        <v>2182</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="21">
+        <v>122</v>
+      </c>
+      <c r="D55" s="21">
+        <v>218</v>
+      </c>
+      <c r="E55" s="21">
+        <v>18</v>
+      </c>
+      <c r="F55" s="21">
+        <v>23</v>
+      </c>
+      <c r="G55" s="21">
+        <v>35</v>
+      </c>
+      <c r="H55" s="21">
+        <v>35</v>
+      </c>
+      <c r="I55" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="J55" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="K55" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L55" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="M55" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="21">
+        <v>2183</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="C56" s="21">
+        <v>113</v>
+      </c>
+      <c r="D56" s="21">
+        <v>218</v>
+      </c>
+      <c r="E56" s="21">
+        <v>6</v>
+      </c>
+      <c r="F56" s="21">
+        <v>8</v>
+      </c>
+      <c r="G56" s="21">
+        <v>10</v>
+      </c>
+      <c r="H56" s="21">
+        <v>10</v>
+      </c>
+      <c r="I56" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="J56" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="K56" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="L56" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="M56" s="22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="21">
+        <v>2184</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="C57" s="21">
+        <v>113</v>
+      </c>
+      <c r="D57" s="21">
+        <v>218</v>
+      </c>
+      <c r="E57" s="21">
+        <v>6</v>
+      </c>
+      <c r="F57" s="21">
+        <v>8</v>
+      </c>
+      <c r="G57" s="21">
+        <v>10</v>
+      </c>
+      <c r="H57" s="21">
+        <v>10</v>
+      </c>
+      <c r="I57" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="J57" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="K57" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="L57" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="M57" s="22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="19">
+        <v>2111</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="19">
+        <v>109</v>
+      </c>
+      <c r="D58" s="19">
+        <v>211</v>
+      </c>
+      <c r="E58" s="19">
+        <v>400</v>
+      </c>
+      <c r="F58" s="19">
+        <v>500</v>
+      </c>
+      <c r="G58" s="19">
+        <v>850</v>
+      </c>
+      <c r="H58" s="19">
+        <v>850</v>
+      </c>
+      <c r="I58" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J58" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="M58" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="19">
+        <v>2112</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="19">
+        <v>109</v>
+      </c>
+      <c r="D59" s="19">
+        <v>211</v>
+      </c>
+      <c r="E59" s="19">
+        <v>600</v>
+      </c>
+      <c r="F59" s="19">
+        <v>800</v>
+      </c>
+      <c r="G59" s="19">
+        <v>1300</v>
+      </c>
+      <c r="H59" s="19">
+        <v>1300</v>
+      </c>
+      <c r="I59" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J59" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L59" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="M59" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="19">
+        <v>2113</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="19">
+        <v>109</v>
+      </c>
+      <c r="D60" s="19">
+        <v>211</v>
+      </c>
+      <c r="E60" s="19">
+        <v>880</v>
+      </c>
+      <c r="F60" s="19">
+        <v>1100</v>
+      </c>
+      <c r="G60" s="19">
+        <v>1600</v>
+      </c>
+      <c r="H60" s="19">
+        <v>1600</v>
+      </c>
+      <c r="I60" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J60" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K60" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L60" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="M60" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="19">
+        <v>2114</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="19">
+        <v>109</v>
+      </c>
+      <c r="D61" s="19">
+        <v>211</v>
+      </c>
+      <c r="E61" s="19">
+        <v>1400</v>
+      </c>
+      <c r="F61" s="19">
+        <v>1650</v>
+      </c>
+      <c r="G61" s="19">
+        <v>2400</v>
+      </c>
+      <c r="H61" s="19">
+        <v>2400</v>
+      </c>
+      <c r="I61" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J61" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K61" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L61" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="M61" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="19">
+        <v>2115</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="19">
+        <v>109</v>
+      </c>
+      <c r="D62" s="19">
+        <v>211</v>
+      </c>
+      <c r="E62" s="19">
+        <v>950</v>
+      </c>
+      <c r="F62" s="19">
+        <v>1150</v>
+      </c>
+      <c r="G62" s="19">
+        <v>1800</v>
+      </c>
+      <c r="H62" s="19">
+        <v>1800</v>
+      </c>
+      <c r="I62" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="J62" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="M62" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="19">
+        <v>2116</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="19">
+        <v>109</v>
+      </c>
+      <c r="D63" s="19">
+        <v>211</v>
+      </c>
+      <c r="E63" s="19">
+        <v>300</v>
+      </c>
+      <c r="F63" s="19">
+        <v>1000</v>
+      </c>
+      <c r="G63" s="19">
+        <v>1999</v>
+      </c>
+      <c r="H63" s="19">
+        <v>1999</v>
+      </c>
+      <c r="I63" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="J63" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K63" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L63" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="M63" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="19">
+        <v>2117</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="C64" s="19">
+        <v>109</v>
+      </c>
+      <c r="D64" s="19">
+        <v>211</v>
+      </c>
+      <c r="E64" s="20">
+        <v>780</v>
+      </c>
+      <c r="F64" s="20">
+        <v>1100</v>
+      </c>
+      <c r="G64" s="20">
+        <v>1600</v>
+      </c>
+      <c r="H64" s="20">
+        <v>1600</v>
+      </c>
+      <c r="I64" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="J64" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K64" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L64" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="H3" s="1">
-        <v>468</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="M64" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="19">
+        <v>2117</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="C65" s="19">
+        <v>109</v>
+      </c>
+      <c r="D65" s="19">
+        <v>211</v>
+      </c>
+      <c r="E65" s="20">
+        <v>1150</v>
+      </c>
+      <c r="F65" s="20">
+        <v>1600</v>
+      </c>
+      <c r="G65" s="20">
+        <v>1999</v>
+      </c>
+      <c r="H65" s="20">
+        <v>1999</v>
+      </c>
+      <c r="I65" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="J65" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K65" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L65" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="M65" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="19">
+        <v>2118</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" s="19">
+        <v>109</v>
+      </c>
+      <c r="D66" s="19">
+        <v>211</v>
+      </c>
+      <c r="E66" s="19">
+        <v>330</v>
+      </c>
+      <c r="F66" s="19">
+        <v>550</v>
+      </c>
+      <c r="G66" s="19">
+        <v>1250</v>
+      </c>
+      <c r="H66" s="19">
+        <v>1250</v>
+      </c>
+      <c r="I66" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="J66" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K66" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L66" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="M66" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="37">
+        <v>2091</v>
+      </c>
+      <c r="B67" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" s="37">
+        <v>116</v>
+      </c>
+      <c r="D67" s="37">
+        <v>209</v>
+      </c>
+      <c r="E67" s="37">
+        <v>35</v>
+      </c>
+      <c r="F67" s="37">
+        <v>80</v>
+      </c>
+      <c r="G67" s="37">
+        <v>148</v>
+      </c>
+      <c r="H67" s="37">
+        <v>148</v>
+      </c>
+      <c r="I67" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="J67" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="K67" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="L67" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="M67" s="37" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1">
-        <v>102</v>
-      </c>
-      <c r="D4" s="1">
-        <v>201</v>
-      </c>
-      <c r="E4" s="1">
-        <v>135</v>
-      </c>
-      <c r="F4" s="1">
-        <v>150</v>
-      </c>
-      <c r="G4" s="1">
-        <v>199</v>
-      </c>
-      <c r="H4" s="1">
-        <v>400</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="1">
-        <v>101</v>
-      </c>
-      <c r="D5" s="1">
-        <v>201</v>
-      </c>
-      <c r="E5" s="1">
-        <v>265</v>
-      </c>
-      <c r="F5" s="1">
-        <v>275</v>
-      </c>
-      <c r="G5" s="1">
-        <v>319</v>
-      </c>
-      <c r="H5" s="1">
-        <v>399</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="1">
-        <v>101</v>
-      </c>
-      <c r="D6" s="1">
-        <v>201</v>
-      </c>
-      <c r="E6" s="1">
+    <row r="68" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="17">
+        <v>2211</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="C68" s="17">
+        <v>123</v>
+      </c>
+      <c r="D68" s="17">
+        <v>221</v>
+      </c>
+      <c r="E68" s="17">
+        <v>70</v>
+      </c>
+      <c r="F68" s="17">
+        <v>80</v>
+      </c>
+      <c r="G68" s="17">
+        <v>99</v>
+      </c>
+      <c r="H68" s="17">
+        <v>99</v>
+      </c>
+      <c r="I68" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="J68" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="K68" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="L68" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="F6" s="1">
-        <v>315</v>
-      </c>
-      <c r="G6" s="1">
-        <v>360</v>
-      </c>
-      <c r="H6" s="1">
-        <v>388</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="1">
-        <v>111</v>
-      </c>
-      <c r="D7" s="1">
-        <v>201</v>
-      </c>
-      <c r="E7" s="1">
-        <v>95</v>
-      </c>
-      <c r="F7" s="1">
-        <v>110</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="M68" s="18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="17">
+        <v>2212</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="C69" s="17">
+        <v>123</v>
+      </c>
+      <c r="D69" s="17">
+        <v>221</v>
+      </c>
+      <c r="E69" s="17">
+        <v>120</v>
+      </c>
+      <c r="F69" s="17">
         <v>140</v>
       </c>
-      <c r="H7" s="1">
-        <v>158</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" s="1">
-        <v>110</v>
-      </c>
-      <c r="D8" s="1">
-        <v>201</v>
-      </c>
-      <c r="E8" s="1">
-        <v>279</v>
-      </c>
-      <c r="F8" s="1">
-        <v>285</v>
-      </c>
-      <c r="G8" s="1">
-        <v>299</v>
-      </c>
-      <c r="H8" s="1">
-        <v>299</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="1">
-        <v>114</v>
-      </c>
-      <c r="D9" s="1">
-        <v>201</v>
-      </c>
-      <c r="E9" s="1">
-        <v>205</v>
-      </c>
-      <c r="F9" s="1">
-        <v>215</v>
-      </c>
-      <c r="G9" s="1">
-        <v>245</v>
-      </c>
-      <c r="H9" s="1">
-        <v>255</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="G69" s="17">
         <v>188</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C10" s="1">
-        <v>119</v>
-      </c>
-      <c r="D10" s="1">
-        <v>201</v>
-      </c>
-      <c r="E10" s="1">
-        <v>75</v>
-      </c>
-      <c r="F10" s="1">
-        <v>80</v>
-      </c>
-      <c r="G10" s="1">
-        <v>95</v>
-      </c>
-      <c r="H10" s="1">
-        <v>95</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" s="1">
-        <v>120</v>
-      </c>
-      <c r="D11" s="1">
-        <v>201</v>
-      </c>
-      <c r="E11" s="1">
-        <v>320</v>
-      </c>
-      <c r="F11" s="1">
-        <v>330</v>
-      </c>
-      <c r="G11" s="1">
-        <v>365</v>
-      </c>
-      <c r="H11" s="1">
-        <v>375</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>2021</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="1">
-        <v>121</v>
-      </c>
-      <c r="D12" s="1">
-        <v>201</v>
-      </c>
-      <c r="E12" s="1">
-        <v>225</v>
-      </c>
-      <c r="F12" s="1">
-        <v>235</v>
-      </c>
-      <c r="G12" s="1">
-        <v>260</v>
-      </c>
-      <c r="H12" s="1">
-        <v>265</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
-        <v>2191</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="1">
-        <v>101</v>
-      </c>
-      <c r="D13" s="1">
-        <v>219</v>
-      </c>
-      <c r="E13" s="1">
-        <v>365</v>
-      </c>
-      <c r="F13" s="1">
-        <v>385</v>
-      </c>
-      <c r="G13" s="1">
-        <v>430</v>
-      </c>
-      <c r="H13" s="1">
-        <v>488</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
-        <v>2192</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C14" s="1">
-        <v>112</v>
-      </c>
-      <c r="D14" s="1">
-        <v>219</v>
-      </c>
-      <c r="E14" s="1">
-        <v>400</v>
-      </c>
-      <c r="F14" s="1">
-        <v>410</v>
-      </c>
-      <c r="G14" s="1">
-        <v>440</v>
-      </c>
-      <c r="H14" s="1">
-        <v>448</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
-        <v>2193</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C15" s="1">
-        <v>114</v>
-      </c>
-      <c r="D15" s="1">
-        <v>219</v>
-      </c>
-      <c r="E15" s="1">
-        <v>355</v>
-      </c>
-      <c r="F15" s="1">
-        <v>360</v>
-      </c>
-      <c r="G15" s="1">
-        <v>380</v>
-      </c>
-      <c r="H15" s="1">
-        <v>380</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
-        <v>2194</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" s="1">
-        <v>110</v>
-      </c>
-      <c r="D16" s="1">
-        <v>219</v>
-      </c>
-      <c r="E16" s="1">
-        <v>323</v>
-      </c>
-      <c r="F16" s="1">
-        <v>335</v>
-      </c>
-      <c r="G16" s="1">
-        <v>365</v>
-      </c>
-      <c r="H16" s="1">
-        <v>365</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
-        <v>2195</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C17" s="1">
-        <v>113</v>
-      </c>
-      <c r="D17" s="1">
-        <v>219</v>
-      </c>
-      <c r="E17" s="1">
-        <v>430</v>
-      </c>
-      <c r="F17" s="1">
-        <v>440</v>
-      </c>
-      <c r="G17" s="1">
-        <v>448</v>
-      </c>
-      <c r="H17" s="1">
-        <v>448</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
-        <v>2021</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="1">
-        <v>108</v>
-      </c>
-      <c r="D18" s="1">
-        <v>202</v>
-      </c>
-      <c r="E18" s="1">
-        <v>70</v>
-      </c>
-      <c r="F18" s="1">
-        <v>80</v>
-      </c>
-      <c r="G18" s="1">
-        <v>125</v>
-      </c>
-      <c r="H18" s="1">
-        <v>288</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="1">
-        <v>101</v>
-      </c>
-      <c r="D19" s="1">
-        <v>202</v>
-      </c>
-      <c r="E19" s="1">
-        <v>255</v>
-      </c>
-      <c r="F19" s="1">
-        <v>275</v>
-      </c>
-      <c r="G19" s="1">
-        <v>320</v>
-      </c>
-      <c r="H19" s="1">
-        <v>399</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L19" s="2" t="s">
+      <c r="H69" s="17">
+        <v>188</v>
+      </c>
+      <c r="I69" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="J69" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="M19" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C20" s="1">
-        <v>112</v>
-      </c>
-      <c r="D20" s="1">
-        <v>202</v>
-      </c>
-      <c r="E20" s="1">
-        <v>190</v>
-      </c>
-      <c r="F20" s="1">
-        <v>200</v>
-      </c>
-      <c r="G20" s="1">
-        <v>280</v>
-      </c>
-      <c r="H20" s="1">
-        <v>399</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
-        <v>2024</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C21" s="1">
-        <v>113</v>
-      </c>
-      <c r="D21" s="1">
-        <v>202</v>
-      </c>
-      <c r="E21" s="1">
-        <v>35</v>
-      </c>
-      <c r="F21" s="1">
-        <v>40</v>
-      </c>
-      <c r="G21" s="1">
-        <v>48</v>
-      </c>
-      <c r="H21" s="1">
-        <v>48</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="1">
-        <v>2031</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="1">
-        <v>108</v>
-      </c>
-      <c r="D22" s="1">
-        <v>203</v>
-      </c>
-      <c r="E22" s="1">
-        <v>40</v>
-      </c>
-      <c r="F22" s="1">
-        <v>60</v>
-      </c>
-      <c r="G22" s="1">
-        <v>88</v>
-      </c>
-      <c r="H22" s="1">
-        <v>300</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L22" s="2" t="s">
+      <c r="K69" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="M22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="1">
-        <v>2032</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="1">
-        <v>105</v>
-      </c>
-      <c r="D23" s="1">
-        <v>203</v>
-      </c>
-      <c r="E23" s="1">
-        <v>45</v>
-      </c>
-      <c r="F23" s="1">
-        <v>55</v>
-      </c>
-      <c r="G23" s="1">
-        <v>68</v>
-      </c>
-      <c r="H23" s="1">
-        <v>89</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L23" s="2" t="s">
+      <c r="L69" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="M23" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1">
-        <v>2033</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="1">
-        <v>103</v>
-      </c>
-      <c r="D24" s="1">
-        <v>203</v>
-      </c>
-      <c r="E24" s="1">
-        <v>108</v>
-      </c>
-      <c r="F24" s="1">
-        <v>120</v>
-      </c>
-      <c r="G24" s="1">
-        <v>135</v>
-      </c>
-      <c r="H24" s="1">
-        <v>138</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="1">
-        <v>2034</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="1">
-        <v>103</v>
-      </c>
-      <c r="D25" s="1">
-        <v>203</v>
-      </c>
-      <c r="E25" s="1">
-        <v>246</v>
-      </c>
-      <c r="F25" s="1">
-        <v>265</v>
-      </c>
-      <c r="G25" s="1">
-        <v>310</v>
-      </c>
-      <c r="H25" s="1">
-        <v>350</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="1">
-        <v>2035</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="1">
-        <v>101</v>
-      </c>
-      <c r="D26" s="1">
-        <v>203</v>
-      </c>
-      <c r="E26" s="1">
-        <v>85</v>
-      </c>
-      <c r="F26" s="1">
-        <v>90</v>
-      </c>
-      <c r="G26" s="1">
-        <v>120</v>
-      </c>
-      <c r="H26" s="1">
-        <v>140</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="1">
-        <v>2036</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C27" s="1">
-        <v>115</v>
-      </c>
-      <c r="D27" s="1">
-        <v>203</v>
-      </c>
-      <c r="E27" s="1">
-        <v>14</v>
-      </c>
-      <c r="F27" s="1">
-        <v>18</v>
-      </c>
-      <c r="G27" s="1">
-        <v>23</v>
-      </c>
-      <c r="H27" s="1">
-        <v>23</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="1">
-        <v>2037</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C28" s="1">
-        <v>118</v>
-      </c>
-      <c r="D28" s="1">
-        <v>203</v>
-      </c>
-      <c r="E28" s="1">
-        <v>53</v>
-      </c>
-      <c r="F28" s="1">
-        <v>60</v>
-      </c>
-      <c r="G28" s="1">
-        <v>78</v>
-      </c>
-      <c r="H28" s="1">
-        <v>78</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="L28" s="2" t="s">
+      <c r="M69" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="M28" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="1">
-        <v>2041</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="1">
-        <v>106</v>
-      </c>
-      <c r="D29" s="1">
-        <v>204</v>
-      </c>
-      <c r="E29" s="1">
-        <v>64</v>
-      </c>
-      <c r="F29" s="1">
-        <v>70</v>
-      </c>
-      <c r="G29" s="1">
-        <v>88</v>
-      </c>
-      <c r="H29" s="1">
-        <v>99</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="1">
-        <v>2042</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C30" s="1">
-        <v>113</v>
-      </c>
-      <c r="D30" s="1">
-        <v>204</v>
-      </c>
-      <c r="E30" s="1">
-        <v>20</v>
-      </c>
-      <c r="F30" s="1">
-        <v>25</v>
-      </c>
-      <c r="G30" s="1">
-        <v>35</v>
-      </c>
-      <c r="H30" s="1">
-        <v>35</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="J30" s="2" t="s">
+    </row>
+    <row r="70" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="17">
+        <v>2213</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="C70" s="17">
+        <v>124</v>
+      </c>
+      <c r="D70" s="17">
         <v>221</v>
       </c>
-      <c r="K30" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="1">
-        <v>2051</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C31" s="1">
-        <v>117</v>
-      </c>
-      <c r="D31" s="1">
-        <v>205</v>
-      </c>
-      <c r="E31" s="1">
-        <v>35</v>
-      </c>
-      <c r="F31" s="1">
-        <v>40</v>
-      </c>
-      <c r="G31" s="1">
-        <v>60</v>
-      </c>
-      <c r="H31" s="1">
-        <v>60</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="1">
-        <v>2052</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C32" s="1">
-        <v>117</v>
-      </c>
-      <c r="D32" s="1">
-        <v>205</v>
-      </c>
-      <c r="E32" s="1">
-        <v>43</v>
-      </c>
-      <c r="F32" s="1">
-        <v>50</v>
-      </c>
-      <c r="G32" s="1">
-        <v>68</v>
-      </c>
-      <c r="H32" s="1">
-        <v>88</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="1">
-        <v>2053</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C33" s="1">
-        <v>117</v>
-      </c>
-      <c r="D33" s="1">
-        <v>205</v>
-      </c>
-      <c r="E33" s="1">
-        <v>60</v>
-      </c>
-      <c r="F33" s="1">
-        <v>70</v>
-      </c>
-      <c r="G33" s="1">
-        <v>99</v>
-      </c>
-      <c r="H33" s="1">
-        <v>99</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A34" s="1">
-        <v>2061</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="1">
-        <v>101</v>
-      </c>
-      <c r="D34" s="1">
-        <v>206</v>
-      </c>
-      <c r="E34" s="1">
-        <v>30</v>
-      </c>
-      <c r="F34" s="1">
-        <v>38</v>
-      </c>
-      <c r="G34" s="1">
-        <v>58</v>
-      </c>
-      <c r="H34" s="1">
-        <v>68</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A35" s="1">
-        <v>2062</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C35" s="1">
-        <v>117</v>
-      </c>
-      <c r="D35" s="1">
-        <v>206</v>
-      </c>
-      <c r="E35" s="1">
-        <v>43</v>
-      </c>
-      <c r="F35" s="1">
-        <v>50</v>
-      </c>
-      <c r="G35" s="1">
-        <v>68</v>
-      </c>
-      <c r="H35" s="1">
-        <v>75</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="M35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A36" s="1">
-        <v>2063</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C36" s="1">
-        <v>117</v>
-      </c>
-      <c r="D36" s="1">
-        <v>206</v>
-      </c>
-      <c r="E36" s="1">
-        <v>60</v>
-      </c>
-      <c r="F36" s="1">
-        <v>70</v>
-      </c>
-      <c r="G36" s="1">
-        <v>95</v>
-      </c>
-      <c r="H36" s="1">
-        <v>99</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A37" s="1">
-        <v>2071</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="1">
-        <v>100</v>
-      </c>
-      <c r="D37" s="1">
-        <v>207</v>
-      </c>
-      <c r="E37" s="1">
-        <v>135</v>
-      </c>
-      <c r="F37" s="1">
-        <v>145</v>
-      </c>
-      <c r="G37" s="1">
-        <v>299</v>
-      </c>
-      <c r="H37" s="1">
-        <v>199</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A38" s="1">
-        <v>2072</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C38" s="1">
-        <v>115</v>
-      </c>
-      <c r="D38" s="1">
-        <v>207</v>
-      </c>
-      <c r="E38" s="1">
-        <v>5</v>
-      </c>
-      <c r="F38" s="1">
-        <v>6</v>
-      </c>
-      <c r="G38" s="1">
-        <v>10</v>
-      </c>
-      <c r="H38" s="1">
-        <v>12</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A39" s="1">
-        <v>2073</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C39" s="1">
-        <v>118</v>
-      </c>
-      <c r="D39" s="1">
-        <v>207</v>
-      </c>
-      <c r="E39" s="1">
-        <v>15</v>
-      </c>
-      <c r="F39" s="1">
-        <v>20</v>
-      </c>
-      <c r="G39" s="1">
-        <v>28</v>
-      </c>
-      <c r="H39" s="1">
-        <v>35</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A40" s="1">
-        <v>2074</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C40" s="1">
-        <v>113</v>
-      </c>
-      <c r="D40" s="1">
-        <v>207</v>
-      </c>
-      <c r="E40" s="1">
-        <v>75</v>
-      </c>
-      <c r="F40" s="1">
-        <v>90</v>
-      </c>
-      <c r="G40" s="1">
-        <v>168</v>
-      </c>
-      <c r="H40" s="1">
-        <v>168</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A41" s="1">
-        <v>2151</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="1">
-        <v>106</v>
-      </c>
-      <c r="D41" s="1">
-        <v>215</v>
-      </c>
-      <c r="E41" s="1">
-        <v>15</v>
-      </c>
-      <c r="F41" s="1">
-        <v>20</v>
-      </c>
-      <c r="G41" s="1">
-        <v>28</v>
-      </c>
-      <c r="H41" s="1">
-        <v>35</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A42" s="1">
-        <v>2141</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C42" s="1">
-        <v>103</v>
-      </c>
-      <c r="D42" s="1">
-        <v>214</v>
-      </c>
-      <c r="E42" s="1">
-        <v>23</v>
-      </c>
-      <c r="F42" s="1">
-        <v>26</v>
-      </c>
-      <c r="G42" s="1">
-        <v>38</v>
-      </c>
-      <c r="H42" s="1">
-        <v>39</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A43" s="1">
-        <v>2142</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C43" s="1">
-        <v>113</v>
-      </c>
-      <c r="D43" s="1">
-        <v>214</v>
-      </c>
-      <c r="E43" s="1">
-        <v>89</v>
-      </c>
-      <c r="F43" s="1">
-        <v>100</v>
-      </c>
-      <c r="G43" s="1">
-        <v>140</v>
-      </c>
-      <c r="H43" s="1">
-        <v>168</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A44" s="1">
-        <v>2161</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C44" s="1">
-        <v>118</v>
-      </c>
-      <c r="D44" s="1">
-        <v>216</v>
-      </c>
-      <c r="E44" s="1">
-        <v>78</v>
-      </c>
-      <c r="F44" s="1">
-        <v>85</v>
-      </c>
-      <c r="G44" s="1">
-        <v>115</v>
-      </c>
-      <c r="H44" s="1">
-        <v>125</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A45" s="1">
-        <v>2201</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C45" s="1">
-        <v>115</v>
-      </c>
-      <c r="D45" s="1">
-        <v>220</v>
-      </c>
-      <c r="E45" s="1">
-        <v>4</v>
-      </c>
-      <c r="F45" s="1">
-        <v>6</v>
-      </c>
-      <c r="G45" s="1">
-        <v>8</v>
-      </c>
-      <c r="H45" s="1">
-        <v>10</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="M45" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A46" s="1">
-        <v>2081</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C46" s="1">
-        <v>104</v>
-      </c>
-      <c r="D46" s="1">
-        <v>208</v>
-      </c>
-      <c r="E46" s="1">
-        <v>35</v>
-      </c>
-      <c r="F46" s="1">
-        <v>40</v>
-      </c>
-      <c r="G46" s="1">
-        <v>48</v>
-      </c>
-      <c r="H46" s="1">
-        <v>48</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A47" s="1">
-        <v>2082</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="1">
-        <v>104</v>
-      </c>
-      <c r="D47" s="1">
-        <v>208</v>
-      </c>
-      <c r="E47" s="1">
-        <v>45</v>
-      </c>
-      <c r="F47" s="1">
-        <v>55</v>
-      </c>
-      <c r="G47" s="1">
-        <v>75</v>
-      </c>
-      <c r="H47" s="1">
-        <v>80</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A48" s="1">
-        <v>2083</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="1">
-        <v>107</v>
-      </c>
-      <c r="D48" s="1">
-        <v>208</v>
-      </c>
-      <c r="E48" s="1">
-        <v>23</v>
-      </c>
-      <c r="F48" s="1">
-        <v>30</v>
-      </c>
-      <c r="G48" s="1">
-        <v>60</v>
-      </c>
-      <c r="H48" s="1">
-        <v>120</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A49" s="1">
-        <v>2084</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C49" s="1">
-        <v>107</v>
-      </c>
-      <c r="D49" s="1">
-        <v>208</v>
-      </c>
-      <c r="E49" s="1">
-        <v>35</v>
-      </c>
-      <c r="F49" s="1">
-        <v>45</v>
-      </c>
-      <c r="G49" s="1">
-        <v>80</v>
-      </c>
-      <c r="H49" s="1">
-        <v>150</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A50" s="1">
-        <v>2085</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C50" s="1">
-        <v>107</v>
-      </c>
-      <c r="D50" s="1">
-        <v>208</v>
-      </c>
-      <c r="E50" s="1">
-        <v>65</v>
-      </c>
-      <c r="F50" s="1">
-        <v>75</v>
-      </c>
-      <c r="G50" s="1">
-        <v>99</v>
-      </c>
-      <c r="H50" s="1">
-        <v>200</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M50" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A51" s="1">
-        <v>2086</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C51" s="1">
-        <v>107</v>
-      </c>
-      <c r="D51" s="1">
-        <v>208</v>
-      </c>
-      <c r="E51" s="1">
-        <v>45</v>
-      </c>
-      <c r="F51" s="1">
-        <v>55</v>
-      </c>
-      <c r="G51" s="1">
-        <v>75</v>
-      </c>
-      <c r="H51" s="1">
-        <v>200</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M51" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A52" s="1">
-        <v>2087</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C52" s="1">
-        <v>107</v>
-      </c>
-      <c r="D52" s="1">
-        <v>208</v>
-      </c>
-      <c r="E52" s="1">
-        <v>75</v>
-      </c>
-      <c r="F52" s="1">
-        <v>95</v>
-      </c>
-      <c r="G52" s="1">
-        <v>150</v>
-      </c>
-      <c r="H52" s="1">
-        <v>230</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M52" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A53" s="1">
-        <v>2181</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C53" s="1">
-        <v>115</v>
-      </c>
-      <c r="D53" s="1">
-        <v>218</v>
-      </c>
-      <c r="E53" s="1">
-        <v>20</v>
-      </c>
-      <c r="F53" s="1">
-        <v>25</v>
-      </c>
-      <c r="G53" s="1">
-        <v>35</v>
-      </c>
-      <c r="H53" s="1">
-        <v>40</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="M53" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A54" s="1">
-        <v>2182</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C54" s="1">
-        <v>122</v>
-      </c>
-      <c r="D54" s="1">
-        <v>218</v>
-      </c>
-      <c r="E54" s="1">
-        <v>18</v>
-      </c>
-      <c r="F54" s="1">
-        <v>23</v>
-      </c>
-      <c r="G54" s="1">
-        <v>35</v>
-      </c>
-      <c r="H54" s="1">
-        <v>45</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="M54" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A55" s="1">
-        <v>2183</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C55" s="1">
-        <v>113</v>
-      </c>
-      <c r="D55" s="1">
-        <v>218</v>
-      </c>
-      <c r="E55" s="1">
-        <v>5</v>
-      </c>
-      <c r="F55" s="1">
-        <v>8</v>
-      </c>
-      <c r="G55" s="1">
-        <v>10</v>
-      </c>
-      <c r="H55" s="1">
-        <v>10</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A56" s="1">
-        <v>2111</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" s="1">
-        <v>109</v>
-      </c>
-      <c r="D56" s="1">
-        <v>211</v>
-      </c>
-      <c r="E56" s="1">
-        <v>400</v>
-      </c>
-      <c r="F56" s="1">
-        <v>600</v>
-      </c>
-      <c r="G56" s="1">
+      <c r="E70" s="17">
         <v>999</v>
       </c>
-      <c r="H56" s="1">
-        <v>0</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L56" s="2" t="s">
+      <c r="F70" s="17">
+        <v>999</v>
+      </c>
+      <c r="G70" s="17">
+        <v>999</v>
+      </c>
+      <c r="H70" s="17">
+        <v>999</v>
+      </c>
+      <c r="I70" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="M56" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A57" s="1">
-        <v>2112</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" s="1">
-        <v>109</v>
-      </c>
-      <c r="D57" s="1">
-        <v>211</v>
-      </c>
-      <c r="E57" s="1">
-        <v>600</v>
-      </c>
-      <c r="F57" s="1">
-        <v>850</v>
-      </c>
-      <c r="G57" s="1">
-        <v>1500</v>
-      </c>
-      <c r="H57" s="1">
-        <v>0</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A58" s="1">
-        <v>2113</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" s="1">
-        <v>109</v>
-      </c>
-      <c r="D58" s="1">
-        <v>211</v>
-      </c>
-      <c r="E58" s="1">
-        <v>900</v>
-      </c>
-      <c r="F58" s="1">
-        <v>1200</v>
-      </c>
-      <c r="G58" s="1">
-        <v>1999</v>
-      </c>
-      <c r="H58" s="1">
-        <v>0</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A59" s="1">
-        <v>2114</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C59" s="1">
-        <v>109</v>
-      </c>
-      <c r="D59" s="1">
-        <v>211</v>
-      </c>
-      <c r="E59" s="1">
-        <v>1500</v>
-      </c>
-      <c r="F59" s="1">
-        <v>1800</v>
-      </c>
-      <c r="G59" s="1">
-        <v>2300</v>
-      </c>
-      <c r="H59" s="1">
-        <v>0</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A60" s="1">
-        <v>2115</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C60" s="1">
-        <v>109</v>
-      </c>
-      <c r="D60" s="1">
-        <v>211</v>
-      </c>
-      <c r="E60" s="1">
-        <v>750</v>
-      </c>
-      <c r="F60" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G60" s="1">
-        <v>1200</v>
-      </c>
-      <c r="H60" s="1">
-        <v>0</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L60" s="2" t="s">
+      <c r="J70" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="M60" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A61" s="1">
-        <v>2116</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C61" s="1">
-        <v>109</v>
-      </c>
-      <c r="D61" s="1">
-        <v>211</v>
-      </c>
-      <c r="E61" s="1">
-        <v>300</v>
-      </c>
-      <c r="F61" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G61" s="1">
-        <v>1999</v>
-      </c>
-      <c r="H61" s="1">
-        <v>0</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M61" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A62" s="1">
-        <v>2117</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C62" s="1">
-        <v>109</v>
-      </c>
-      <c r="D62" s="1">
-        <v>211</v>
-      </c>
-      <c r="E62" s="2">
-        <v>780</v>
-      </c>
-      <c r="F62" s="2">
-        <v>1100</v>
-      </c>
-      <c r="G62" s="2">
-        <v>1600</v>
-      </c>
-      <c r="H62" s="1">
-        <v>0</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="M62" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A63" s="1">
-        <v>2117</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C63" s="1">
-        <v>109</v>
-      </c>
-      <c r="D63" s="1">
-        <v>211</v>
-      </c>
-      <c r="E63" s="2">
-        <v>1150</v>
-      </c>
-      <c r="F63" s="2">
-        <v>1600</v>
-      </c>
-      <c r="G63" s="2">
-        <v>1999</v>
-      </c>
-      <c r="H63" s="1">
-        <v>0</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="M63" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A64" s="1">
-        <v>2118</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C64" s="1">
-        <v>109</v>
-      </c>
-      <c r="D64" s="1">
-        <v>211</v>
-      </c>
-      <c r="E64" s="1">
-        <v>330</v>
-      </c>
-      <c r="F64" s="1">
-        <v>650</v>
-      </c>
-      <c r="G64" s="1">
-        <v>1250</v>
-      </c>
-      <c r="H64" s="1">
-        <v>0</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M64" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A65" s="1">
-        <v>2091</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C65" s="1">
-        <v>116</v>
-      </c>
-      <c r="D65" s="1">
-        <v>209</v>
-      </c>
-      <c r="E65" s="1">
-        <v>35</v>
-      </c>
-      <c r="F65" s="1">
-        <v>80</v>
-      </c>
-      <c r="G65" s="1">
-        <v>148</v>
-      </c>
-      <c r="H65" s="1">
-        <v>0</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A66" s="1">
-        <v>2211</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C66" s="1">
-        <v>123</v>
-      </c>
-      <c r="D66" s="1">
-        <v>221</v>
-      </c>
-      <c r="E66" s="1">
-        <v>78</v>
-      </c>
-      <c r="F66" s="1">
-        <v>85</v>
-      </c>
-      <c r="G66" s="1">
-        <v>99</v>
-      </c>
-      <c r="H66" s="1">
-        <v>300</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A67" s="1">
-        <v>2212</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C67" s="1">
-        <v>123</v>
-      </c>
-      <c r="D67" s="1">
-        <v>221</v>
-      </c>
-      <c r="E67" s="1">
-        <v>145</v>
-      </c>
-      <c r="F67" s="1">
-        <v>155</v>
-      </c>
-      <c r="G67" s="1">
-        <v>199</v>
-      </c>
-      <c r="H67" s="1">
-        <v>500</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="M67" s="2" t="s">
-        <v>309</v>
+      <c r="K70" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="L70" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="M70" s="18" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -5450,7 +5774,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5586,7 +5910,7 @@
         <v>110</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -5619,7 +5943,7 @@
         <v>113</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -5630,7 +5954,7 @@
         <v>114</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
@@ -5685,7 +6009,7 @@
         <v>119</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
@@ -5696,7 +6020,7 @@
         <v>120</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
@@ -5707,7 +6031,7 @@
         <v>121</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
@@ -5718,7 +6042,7 @@
         <v>122</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
@@ -5729,7 +6053,7 @@
         <v>123</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
@@ -5740,7 +6064,7 @@
         <v>124</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="C26" s="1">
         <v>3</v>
@@ -5758,7 +6082,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5960,7 +6284,7 @@
         <v>217</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C18" s="1">
         <v>8</v>
@@ -5993,7 +6317,7 @@
         <v>220</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C21" s="1">
         <v>4</v>
@@ -6004,7 +6328,7 @@
         <v>221</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="C22" s="1">
         <v>6</v>
